--- a/Cout/Modele Devis v1.xlsx
+++ b/Cout/Modele Devis v1.xlsx
@@ -16,7 +16,6 @@
     <definedName name="Cout_€_mur">Output!$B$3</definedName>
     <definedName name="Hauteur_mur_cm">Input!$B$2</definedName>
     <definedName name="Largeur_mur_cm">Input!$B$3</definedName>
-    <definedName name="Nombre_m2">Output!$B$2</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
@@ -1096,7 +1095,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
@@ -1106,7 +1105,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1135,7 @@
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S37" sqref="S37"/>
+      <selection pane="bottomLeft" activeCell="S93" sqref="S93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1506,9 +1505,8 @@
           <t>3x50m</t>
         </is>
       </c>
-      <c r="E13" s="20">
-        <f>0.92*3</f>
-        <v/>
+      <c r="E13" s="20" t="n">
+        <v>2.76</v>
       </c>
       <c r="F13" s="21" t="inlineStr">
         <is>
@@ -1522,13 +1520,11 @@
           <t>m lineaire</t>
         </is>
       </c>
-      <c r="K13" s="9">
-        <f>K12/(K9*K10)*1000000</f>
-        <v/>
-      </c>
-      <c r="L13" s="21">
-        <f>L12/(L9*L10)*1000000</f>
-        <v/>
+      <c r="K13" s="9" t="n">
+        <v>61.7283950617284</v>
+      </c>
+      <c r="L13" s="21" t="n">
+        <v>101.010101010101</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -1540,9 +1536,8 @@
       <c r="B14" s="9" t="n"/>
       <c r="C14" s="9" t="n"/>
       <c r="D14" s="9" t="n"/>
-      <c r="E14" s="20">
-        <f>3*1</f>
-        <v/>
+      <c r="E14" s="20" t="n">
+        <v>3</v>
       </c>
       <c r="F14" s="21" t="inlineStr">
         <is>
@@ -1556,13 +1551,11 @@
           <t>Prix au m3</t>
         </is>
       </c>
-      <c r="K14" s="9">
-        <f>600+25+750/40</f>
-        <v/>
-      </c>
-      <c r="L14" s="21">
-        <f>500+25+750/40</f>
-        <v/>
+      <c r="K14" s="9" t="n">
+        <v>643.75</v>
+      </c>
+      <c r="L14" s="21" t="n">
+        <v>543.75</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -1578,9 +1571,8 @@
           <t>4x4cm</t>
         </is>
       </c>
-      <c r="E15" s="20">
-        <f>0.95*0</f>
-        <v/>
+      <c r="E15" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="F15" s="21" t="inlineStr">
         <is>
@@ -1594,13 +1586,11 @@
           <t>Prix au m lineaire</t>
         </is>
       </c>
-      <c r="K15" s="22">
-        <f>K14/K13</f>
-        <v/>
-      </c>
-      <c r="L15" s="23">
-        <f>L14/L13</f>
-        <v/>
+      <c r="K15" s="22" t="n">
+        <v>10.42875</v>
+      </c>
+      <c r="L15" s="23" t="n">
+        <v>5.383125</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -1640,9 +1630,8 @@
           <t>60mm</t>
         </is>
       </c>
-      <c r="E17" s="25">
-        <f>13.2/40</f>
-        <v/>
+      <c r="E17" s="25" t="n">
+        <v>0.33</v>
       </c>
       <c r="F17" s="21" t="inlineStr">
         <is>
@@ -1819,9 +1808,8 @@
       <c r="G24" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="34">
-        <f>E24*G24</f>
-        <v/>
+      <c r="H24" s="34" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="25" ht="12.5" customHeight="1">
@@ -1848,9 +1836,8 @@
       <c r="G25" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="H25" s="34">
-        <f>E25*G25</f>
-        <v/>
+      <c r="H25" s="34" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" ht="12.5" customHeight="1">
@@ -1877,9 +1864,8 @@
       <c r="G26" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="H26" s="34">
-        <f>E26*G26</f>
-        <v/>
+      <c r="H26" s="34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="13" customHeight="1">
@@ -1894,9 +1880,8 @@
       <c r="E27" s="37" t="n"/>
       <c r="F27" s="36" t="n"/>
       <c r="G27" s="36" t="n"/>
-      <c r="H27" s="38">
-        <f>SUM(H24:H26)</f>
-        <v/>
+      <c r="H27" s="38" t="n">
+        <v>10.7</v>
       </c>
       <c r="I27" s="39" t="n"/>
       <c r="J27" s="39" t="n"/>
@@ -1980,70 +1965,26 @@
     <row r="34" ht="13" customHeight="1" thickBot="1">
       <c r="A34" s="5" t="n"/>
       <c r="B34" s="9" t="n"/>
-      <c r="C34" s="25">
-        <f>IF($S$36&lt;C36,"x","")</f>
-        <v/>
-      </c>
-      <c r="D34" s="25">
-        <f>IF(AND(C36&lt;=$S$36,$S$36&lt;D36),"x","")</f>
-        <v/>
-      </c>
-      <c r="E34" s="25">
-        <f>IF(AND(D36&lt;=$S$36,$S$36&lt;E36),"x","")</f>
-        <v/>
-      </c>
-      <c r="F34" s="25">
-        <f>IF(AND(E36&lt;=$S$36,$S$36&lt;F36),"x","")</f>
-        <v/>
-      </c>
-      <c r="G34" s="25">
-        <f>IF(AND(F36&lt;=$S$36,$S$36&lt;G36),"x","")</f>
-        <v/>
-      </c>
-      <c r="H34" s="25">
-        <f>IF(AND(G36&lt;=$S$36,$S$36&lt;H36),"x","")</f>
-        <v/>
-      </c>
-      <c r="I34" s="25">
-        <f>IF(AND(H36&lt;=$S$36,$S$36&lt;I36),"x","")</f>
-        <v/>
-      </c>
-      <c r="J34" s="25">
-        <f>IF(AND(I36&lt;=$S$36,$S$36&lt;J36),"x","")</f>
-        <v/>
-      </c>
-      <c r="K34" s="25">
-        <f>IF(AND(J36&lt;=$S$36,$S$36&lt;K36),"x","")</f>
-        <v/>
-      </c>
-      <c r="L34" s="25">
-        <f>IF(AND(K36&lt;=$S$36,$S$36&lt;L36),"x","")</f>
-        <v/>
-      </c>
-      <c r="M34" s="25">
-        <f>IF(AND(L36&lt;=$S$36,$S$36&lt;M36),"x","")</f>
-        <v/>
-      </c>
-      <c r="N34" s="25">
-        <f>IF(AND(M36&lt;=$S$36,$S$36&lt;N36),"x","")</f>
-        <v/>
-      </c>
-      <c r="O34" s="25">
-        <f>IF(AND(N36&lt;=$S$36,$S$36&lt;O36),"x","")</f>
-        <v/>
-      </c>
-      <c r="P34" s="25">
-        <f>IF(AND(O36&lt;=$S$36,$S$36&lt;P36),"x","")</f>
-        <v/>
-      </c>
-      <c r="Q34" s="25">
-        <f>IF(AND(P36&lt;=$S$36,$S$36&lt;Q36),"x","")</f>
-        <v/>
-      </c>
-      <c r="R34" s="25">
-        <f>IF($S$36&gt;Q36,"x","")</f>
-        <v/>
-      </c>
+      <c r="C34" s="25" t="str"/>
+      <c r="D34" s="25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E34" s="25" t="str"/>
+      <c r="F34" s="25" t="str"/>
+      <c r="G34" s="25" t="str"/>
+      <c r="H34" s="25" t="str"/>
+      <c r="I34" s="25" t="str"/>
+      <c r="J34" s="25" t="str"/>
+      <c r="K34" s="25" t="str"/>
+      <c r="L34" s="25" t="str"/>
+      <c r="M34" s="25" t="str"/>
+      <c r="N34" s="25" t="str"/>
+      <c r="O34" s="25" t="str"/>
+      <c r="P34" s="25" t="str"/>
+      <c r="Q34" s="25" t="str"/>
+      <c r="R34" s="25" t="str"/>
     </row>
     <row r="35" ht="18.5" customHeight="1" thickTop="1">
       <c r="A35" s="42" t="inlineStr">
@@ -2052,73 +1993,56 @@
         </is>
       </c>
       <c r="B35" s="43" t="n"/>
-      <c r="C35" s="44">
-        <f>Hauteur_mur_cm/100</f>
-        <v/>
-      </c>
-      <c r="D35" s="43">
-        <f>C35</f>
-        <v/>
-      </c>
-      <c r="E35" s="43">
-        <f>D35</f>
-        <v/>
-      </c>
-      <c r="F35" s="43">
-        <f>E35</f>
-        <v/>
-      </c>
-      <c r="G35" s="43">
-        <f>F35</f>
-        <v/>
-      </c>
-      <c r="H35" s="43">
-        <f>G35</f>
-        <v/>
-      </c>
-      <c r="I35" s="43">
-        <f>H35</f>
-        <v/>
-      </c>
-      <c r="J35" s="43">
-        <f>I35</f>
-        <v/>
-      </c>
-      <c r="K35" s="43">
-        <f>J35</f>
-        <v/>
-      </c>
-      <c r="L35" s="43">
-        <f>K35</f>
-        <v/>
-      </c>
-      <c r="M35" s="43">
-        <f>L35</f>
-        <v/>
-      </c>
-      <c r="N35" s="43">
-        <f>M35</f>
-        <v/>
-      </c>
-      <c r="O35" s="43">
-        <f>N35</f>
-        <v/>
-      </c>
-      <c r="P35" s="43">
-        <f>O35</f>
-        <v/>
-      </c>
-      <c r="Q35" s="43">
-        <f>P35</f>
-        <v/>
-      </c>
-      <c r="R35" s="45">
-        <f>Q35</f>
-        <v/>
-      </c>
-      <c r="S35" s="89">
-        <f>R35</f>
-        <v/>
+      <c r="C35" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J35" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="L35" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="M35" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="O35" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" s="89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1">
@@ -2176,9 +2100,8 @@
       <c r="R36" s="48" t="n">
         <v>9.6</v>
       </c>
-      <c r="S36" s="90">
-        <f>Largeur_mur_cm/100</f>
-        <v/>
+      <c r="S36" s="90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" ht="12.5" customHeight="1">
@@ -2187,73 +2110,56 @@
           <t>Nombre de m2</t>
         </is>
       </c>
-      <c r="C37" s="9">
-        <f>C36*C35</f>
-        <v/>
-      </c>
-      <c r="D37" s="9">
-        <f>D36*D35</f>
-        <v/>
-      </c>
-      <c r="E37" s="9">
-        <f>E36*E35</f>
-        <v/>
-      </c>
-      <c r="F37" s="9">
-        <f>F36*F35</f>
-        <v/>
-      </c>
-      <c r="G37" s="9">
-        <f>G36*G35</f>
-        <v/>
-      </c>
-      <c r="H37" s="9">
-        <f>H36*H35</f>
-        <v/>
-      </c>
-      <c r="I37" s="9">
-        <f>I36*I35</f>
-        <v/>
-      </c>
-      <c r="J37" s="9">
-        <f>J36*J35</f>
-        <v/>
-      </c>
-      <c r="K37" s="9">
-        <f>K36*K35</f>
-        <v/>
-      </c>
-      <c r="L37" s="9">
-        <f>L36*L35</f>
-        <v/>
-      </c>
-      <c r="M37" s="9">
-        <f>M36*M35</f>
-        <v/>
-      </c>
-      <c r="N37" s="9">
-        <f>N36*N35</f>
-        <v/>
-      </c>
-      <c r="O37" s="9">
-        <f>O36*O35</f>
-        <v/>
-      </c>
-      <c r="P37" s="9">
-        <f>P36*P35</f>
-        <v/>
-      </c>
-      <c r="Q37" s="9">
-        <f>Q36*Q35</f>
-        <v/>
-      </c>
-      <c r="R37" s="21">
-        <f>R36*R35</f>
-        <v/>
-      </c>
-      <c r="S37" s="91">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S37)-33,FALSE)</f>
-        <v/>
+      <c r="C37" s="9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E37" s="9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="G37" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="I37" s="9" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="L37" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="M37" s="9" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="N37" s="9" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="O37" s="9" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="P37" s="9" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="Q37" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="R37" s="21" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="S37" s="91" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="38" ht="12.5" customHeight="1">
@@ -2311,9 +2217,8 @@
       <c r="R38" s="51" t="n">
         <v>16</v>
       </c>
-      <c r="S38" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S38)-33,FALSE)</f>
-        <v/>
+      <c r="S38" s="92" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39" ht="12.5" customHeight="1">
@@ -2369,73 +2274,56 @@
         </is>
       </c>
       <c r="B41" s="49" t="n"/>
-      <c r="C41" s="49">
-        <f>C36*2</f>
-        <v/>
-      </c>
-      <c r="D41" s="49">
-        <f>D36*2</f>
-        <v/>
-      </c>
-      <c r="E41" s="49">
-        <f>E36*2</f>
-        <v/>
-      </c>
-      <c r="F41" s="49">
-        <f>F36*2</f>
-        <v/>
-      </c>
-      <c r="G41" s="49">
-        <f>G36*2</f>
-        <v/>
-      </c>
-      <c r="H41" s="49">
-        <f>H36*2</f>
-        <v/>
-      </c>
-      <c r="I41" s="49">
-        <f>I36*2</f>
-        <v/>
-      </c>
-      <c r="J41" s="49">
-        <f>J36*2</f>
-        <v/>
-      </c>
-      <c r="K41" s="49">
-        <f>K36*2</f>
-        <v/>
-      </c>
-      <c r="L41" s="49">
-        <f>L36*2</f>
-        <v/>
-      </c>
-      <c r="M41" s="49">
-        <f>M36*2</f>
-        <v/>
-      </c>
-      <c r="N41" s="49">
-        <f>N36*2</f>
-        <v/>
-      </c>
-      <c r="O41" s="49">
-        <f>O36*2</f>
-        <v/>
-      </c>
-      <c r="P41" s="49">
-        <f>P36*2</f>
-        <v/>
-      </c>
-      <c r="Q41" s="49">
-        <f>Q36*2</f>
-        <v/>
-      </c>
-      <c r="R41" s="51">
-        <f>R36*2</f>
-        <v/>
-      </c>
-      <c r="S41" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S41)-33,FALSE)</f>
-        <v/>
+      <c r="C41" s="49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D41" s="49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E41" s="49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F41" s="49" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G41" s="49" t="n">
+        <v>6</v>
+      </c>
+      <c r="H41" s="49" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I41" s="49" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J41" s="49" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K41" s="49" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L41" s="49" t="n">
+        <v>12</v>
+      </c>
+      <c r="M41" s="49" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="N41" s="49" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="O41" s="49" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="P41" s="49" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="Q41" s="49" t="n">
+        <v>18</v>
+      </c>
+      <c r="R41" s="51" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="S41" s="92" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="42" ht="12.5" customHeight="1">
@@ -2445,73 +2333,56 @@
         </is>
       </c>
       <c r="B42" s="49" t="n"/>
-      <c r="C42" s="49">
-        <f>(C38+1)*(C35-0.09)</f>
-        <v/>
-      </c>
-      <c r="D42" s="49">
-        <f>(D38+1)*(D35-0.09)</f>
-        <v/>
-      </c>
-      <c r="E42" s="49">
-        <f>(E38+1)*(E35-0.09)</f>
-        <v/>
-      </c>
-      <c r="F42" s="49">
-        <f>(F38+1)*(F35-0.09)</f>
-        <v/>
-      </c>
-      <c r="G42" s="49">
-        <f>(G38+1)*(G35-0.09)</f>
-        <v/>
-      </c>
-      <c r="H42" s="49">
-        <f>(H38+1)*(H35-0.09)</f>
-        <v/>
-      </c>
-      <c r="I42" s="49">
-        <f>(I38+1)*(I35-0.09)</f>
-        <v/>
-      </c>
-      <c r="J42" s="49">
-        <f>(J38+1)*(J35-0.09)</f>
-        <v/>
-      </c>
-      <c r="K42" s="49">
-        <f>(K38+1)*(K35-0.09)</f>
-        <v/>
-      </c>
-      <c r="L42" s="49">
-        <f>(L38+1)*(L35-0.09)</f>
-        <v/>
-      </c>
-      <c r="M42" s="49">
-        <f>(M38+1)*(M35-0.09)</f>
-        <v/>
-      </c>
-      <c r="N42" s="49">
-        <f>(N38+1)*(N35-0.09)</f>
-        <v/>
-      </c>
-      <c r="O42" s="49">
-        <f>(O38+1)*(O35-0.09)</f>
-        <v/>
-      </c>
-      <c r="P42" s="49">
-        <f>(P38+1)*(P35-0.09)</f>
-        <v/>
-      </c>
-      <c r="Q42" s="49">
-        <f>(Q38+1)*(Q35-0.09)</f>
-        <v/>
-      </c>
-      <c r="R42" s="51">
-        <f>(R38+1)*(R35-0.09)</f>
-        <v/>
-      </c>
-      <c r="S42" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S42)-33,FALSE)</f>
-        <v/>
+      <c r="C42" s="49" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="D42" s="49" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="E42" s="49" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="F42" s="49" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="G42" s="49" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="H42" s="49" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="I42" s="49" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="J42" s="49" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="K42" s="49" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="L42" s="49" t="n">
+        <v>32.01000000000001</v>
+      </c>
+      <c r="M42" s="49" t="n">
+        <v>34.92</v>
+      </c>
+      <c r="N42" s="49" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="O42" s="49" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="P42" s="49" t="n">
+        <v>43.65000000000001</v>
+      </c>
+      <c r="Q42" s="49" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="R42" s="51" t="n">
+        <v>49.47</v>
+      </c>
+      <c r="S42" s="92" t="n">
+        <v>8.73</v>
       </c>
     </row>
     <row r="43" ht="12.5" customHeight="1">
@@ -2521,73 +2392,56 @@
         </is>
       </c>
       <c r="B43" s="49" t="n"/>
-      <c r="C43" s="49">
-        <f>C41+C42</f>
-        <v/>
-      </c>
-      <c r="D43" s="49">
-        <f>D41+D42</f>
-        <v/>
-      </c>
-      <c r="E43" s="49">
-        <f>E41+E42</f>
-        <v/>
-      </c>
-      <c r="F43" s="49">
-        <f>F41+F42</f>
-        <v/>
-      </c>
-      <c r="G43" s="49">
-        <f>G41+G42</f>
-        <v/>
-      </c>
-      <c r="H43" s="49">
-        <f>H41+H42</f>
-        <v/>
-      </c>
-      <c r="I43" s="49">
-        <f>I41+I42</f>
-        <v/>
-      </c>
-      <c r="J43" s="49">
-        <f>J41+J42</f>
-        <v/>
-      </c>
-      <c r="K43" s="49">
-        <f>K41+K42</f>
-        <v/>
-      </c>
-      <c r="L43" s="49">
-        <f>L41+L42</f>
-        <v/>
-      </c>
-      <c r="M43" s="49">
-        <f>M41+M42</f>
-        <v/>
-      </c>
-      <c r="N43" s="49">
-        <f>N41+N42</f>
-        <v/>
-      </c>
-      <c r="O43" s="49">
-        <f>O41+O42</f>
-        <v/>
-      </c>
-      <c r="P43" s="49">
-        <f>P41+P42</f>
-        <v/>
-      </c>
-      <c r="Q43" s="49">
-        <f>Q41+Q42</f>
-        <v/>
-      </c>
-      <c r="R43" s="51">
-        <f>R41+R42</f>
-        <v/>
-      </c>
-      <c r="S43" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S43)-33,FALSE)</f>
-        <v/>
+      <c r="C43" s="49" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="D43" s="49" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="E43" s="49" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="F43" s="49" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="G43" s="49" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="H43" s="49" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="I43" s="49" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="J43" s="49" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="K43" s="49" t="n">
+        <v>39.90000000000001</v>
+      </c>
+      <c r="L43" s="49" t="n">
+        <v>44.01000000000001</v>
+      </c>
+      <c r="M43" s="49" t="n">
+        <v>48.12</v>
+      </c>
+      <c r="N43" s="49" t="n">
+        <v>52.23</v>
+      </c>
+      <c r="O43" s="49" t="n">
+        <v>56.34</v>
+      </c>
+      <c r="P43" s="49" t="n">
+        <v>60.45</v>
+      </c>
+      <c r="Q43" s="49" t="n">
+        <v>64.56</v>
+      </c>
+      <c r="R43" s="51" t="n">
+        <v>68.67</v>
+      </c>
+      <c r="S43" s="92" t="n">
+        <v>11.13</v>
       </c>
     </row>
     <row r="44" ht="12.5" customHeight="1">
@@ -2597,73 +2451,56 @@
         </is>
       </c>
       <c r="B44" s="49" t="n"/>
-      <c r="C44" s="49">
-        <f>C43*1.1</f>
-        <v/>
-      </c>
-      <c r="D44" s="49">
-        <f>D43*1.1</f>
-        <v/>
-      </c>
-      <c r="E44" s="49">
-        <f>E43*1.1</f>
-        <v/>
-      </c>
-      <c r="F44" s="49">
-        <f>F43*1.1</f>
-        <v/>
-      </c>
-      <c r="G44" s="49">
-        <f>G43*1.1</f>
-        <v/>
-      </c>
-      <c r="H44" s="49">
-        <f>H43*1.1</f>
-        <v/>
-      </c>
-      <c r="I44" s="49">
-        <f>I43*1.1</f>
-        <v/>
-      </c>
-      <c r="J44" s="49">
-        <f>J43*1.1</f>
-        <v/>
-      </c>
-      <c r="K44" s="49">
-        <f>K43*1.1</f>
-        <v/>
-      </c>
-      <c r="L44" s="49">
-        <f>L43*1.1</f>
-        <v/>
-      </c>
-      <c r="M44" s="49">
-        <f>M43*1.1</f>
-        <v/>
-      </c>
-      <c r="N44" s="49">
-        <f>N43*1.1</f>
-        <v/>
-      </c>
-      <c r="O44" s="49">
-        <f>O43*1.1</f>
-        <v/>
-      </c>
-      <c r="P44" s="49">
-        <f>P43*1.1</f>
-        <v/>
-      </c>
-      <c r="Q44" s="49">
-        <f>Q43*1.1</f>
-        <v/>
-      </c>
-      <c r="R44" s="51">
-        <f>R43*1.1</f>
-        <v/>
-      </c>
-      <c r="S44" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S44)-33,FALSE)</f>
-        <v/>
+      <c r="C44" s="49" t="n">
+        <v>7.722000000000001</v>
+      </c>
+      <c r="D44" s="49" t="n">
+        <v>12.243</v>
+      </c>
+      <c r="E44" s="49" t="n">
+        <v>16.764</v>
+      </c>
+      <c r="F44" s="49" t="n">
+        <v>21.285</v>
+      </c>
+      <c r="G44" s="49" t="n">
+        <v>25.806</v>
+      </c>
+      <c r="H44" s="49" t="n">
+        <v>30.327</v>
+      </c>
+      <c r="I44" s="49" t="n">
+        <v>34.848</v>
+      </c>
+      <c r="J44" s="49" t="n">
+        <v>39.369</v>
+      </c>
+      <c r="K44" s="49" t="n">
+        <v>43.89000000000001</v>
+      </c>
+      <c r="L44" s="49" t="n">
+        <v>48.41100000000001</v>
+      </c>
+      <c r="M44" s="49" t="n">
+        <v>52.93200000000001</v>
+      </c>
+      <c r="N44" s="49" t="n">
+        <v>57.453</v>
+      </c>
+      <c r="O44" s="49" t="n">
+        <v>61.97400000000001</v>
+      </c>
+      <c r="P44" s="49" t="n">
+        <v>66.495</v>
+      </c>
+      <c r="Q44" s="49" t="n">
+        <v>71.01600000000001</v>
+      </c>
+      <c r="R44" s="51" t="n">
+        <v>75.53700000000001</v>
+      </c>
+      <c r="S44" s="92" t="n">
+        <v>12.243</v>
       </c>
     </row>
     <row r="45" ht="12.5" customHeight="1">
@@ -2673,73 +2510,56 @@
         </is>
       </c>
       <c r="B45" s="53" t="n"/>
-      <c r="C45" s="53">
-        <f>C44*E9</f>
-        <v/>
-      </c>
-      <c r="D45" s="53">
-        <f>D44*E9</f>
-        <v/>
-      </c>
-      <c r="E45" s="53">
-        <f>E44*E9</f>
-        <v/>
-      </c>
-      <c r="F45" s="53">
-        <f>F44*E9</f>
-        <v/>
-      </c>
-      <c r="G45" s="53">
-        <f>G44*E9</f>
-        <v/>
-      </c>
-      <c r="H45" s="53">
-        <f>H44*E9</f>
-        <v/>
-      </c>
-      <c r="I45" s="53">
-        <f>I44*E9</f>
-        <v/>
-      </c>
-      <c r="J45" s="53">
-        <f>J44*E9</f>
-        <v/>
-      </c>
-      <c r="K45" s="53">
-        <f>K44*E9</f>
-        <v/>
-      </c>
-      <c r="L45" s="53">
-        <f>L44*E9</f>
-        <v/>
-      </c>
-      <c r="M45" s="53">
-        <f>M44*E9</f>
-        <v/>
-      </c>
-      <c r="N45" s="53">
-        <f>N44*E9</f>
-        <v/>
-      </c>
-      <c r="O45" s="53">
-        <f>O44*E9</f>
-        <v/>
-      </c>
-      <c r="P45" s="53">
-        <f>P44*E9</f>
-        <v/>
-      </c>
-      <c r="Q45" s="53">
-        <f>Q44*E9</f>
-        <v/>
-      </c>
-      <c r="R45" s="54">
-        <f>R44*E9</f>
-        <v/>
-      </c>
-      <c r="S45" s="93">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S45)-33,FALSE)</f>
-        <v/>
+      <c r="C45" s="53" t="n">
+        <v>80.54046000000001</v>
+      </c>
+      <c r="D45" s="53" t="n">
+        <v>127.69449</v>
+      </c>
+      <c r="E45" s="53" t="n">
+        <v>174.84852</v>
+      </c>
+      <c r="F45" s="53" t="n">
+        <v>222.00255</v>
+      </c>
+      <c r="G45" s="53" t="n">
+        <v>269.15658</v>
+      </c>
+      <c r="H45" s="53" t="n">
+        <v>316.31061</v>
+      </c>
+      <c r="I45" s="53" t="n">
+        <v>363.46464</v>
+      </c>
+      <c r="J45" s="53" t="n">
+        <v>410.61867</v>
+      </c>
+      <c r="K45" s="53" t="n">
+        <v>457.7727</v>
+      </c>
+      <c r="L45" s="53" t="n">
+        <v>504.9267300000001</v>
+      </c>
+      <c r="M45" s="53" t="n">
+        <v>552.0807600000001</v>
+      </c>
+      <c r="N45" s="53" t="n">
+        <v>599.23479</v>
+      </c>
+      <c r="O45" s="53" t="n">
+        <v>646.3888200000001</v>
+      </c>
+      <c r="P45" s="53" t="n">
+        <v>693.54285</v>
+      </c>
+      <c r="Q45" s="53" t="n">
+        <v>740.6968800000001</v>
+      </c>
+      <c r="R45" s="54" t="n">
+        <v>787.85091</v>
+      </c>
+      <c r="S45" s="93" t="n">
+        <v>127.69449</v>
       </c>
     </row>
     <row r="46" ht="12.5" customHeight="1">
@@ -2770,73 +2590,56 @@
         </is>
       </c>
       <c r="B47" s="49" t="n"/>
-      <c r="C47" s="49">
-        <f>C36*2.8</f>
-        <v/>
-      </c>
-      <c r="D47" s="49">
-        <f>D36*2.8</f>
-        <v/>
-      </c>
-      <c r="E47" s="49">
-        <f>E36*2.8</f>
-        <v/>
-      </c>
-      <c r="F47" s="49">
-        <f>F36*2.8</f>
-        <v/>
-      </c>
-      <c r="G47" s="49">
-        <f>G36*2.8</f>
-        <v/>
-      </c>
-      <c r="H47" s="49">
-        <f>H36*2.8</f>
-        <v/>
-      </c>
-      <c r="I47" s="49">
-        <f>I36*2.8</f>
-        <v/>
-      </c>
-      <c r="J47" s="49">
-        <f>J36*2.8</f>
-        <v/>
-      </c>
-      <c r="K47" s="49">
-        <f>K36*2.8</f>
-        <v/>
-      </c>
-      <c r="L47" s="49">
-        <f>L36*2.8</f>
-        <v/>
-      </c>
-      <c r="M47" s="49">
-        <f>M36*2.8</f>
-        <v/>
-      </c>
-      <c r="N47" s="49">
-        <f>N36*2.8</f>
-        <v/>
-      </c>
-      <c r="O47" s="49">
-        <f>O36*2.8</f>
-        <v/>
-      </c>
-      <c r="P47" s="49">
-        <f>P36*2.8</f>
-        <v/>
-      </c>
-      <c r="Q47" s="49">
-        <f>Q36*2.8</f>
-        <v/>
-      </c>
-      <c r="R47" s="51">
-        <f>R36*2.8</f>
-        <v/>
-      </c>
-      <c r="S47" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S47)-33,FALSE)</f>
-        <v/>
+      <c r="C47" s="49" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D47" s="49" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E47" s="49" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="F47" s="49" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="G47" s="49" t="n">
+        <v>8.399999999999999</v>
+      </c>
+      <c r="H47" s="49" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="I47" s="49" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="J47" s="49" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="K47" s="49" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="L47" s="49" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="M47" s="49" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="N47" s="49" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="O47" s="49" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="P47" s="49" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="Q47" s="49" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="R47" s="51" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="S47" s="92" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="48" ht="12.5" customHeight="1">
@@ -2846,73 +2649,56 @@
         </is>
       </c>
       <c r="B48" s="49" t="n"/>
-      <c r="C48" s="49">
-        <f>C47*1.1</f>
-        <v/>
-      </c>
-      <c r="D48" s="49">
-        <f>D47*1.1</f>
-        <v/>
-      </c>
-      <c r="E48" s="49">
-        <f>E47*1.1</f>
-        <v/>
-      </c>
-      <c r="F48" s="49">
-        <f>F47*1.1</f>
-        <v/>
-      </c>
-      <c r="G48" s="49">
-        <f>G47*1.1</f>
-        <v/>
-      </c>
-      <c r="H48" s="49">
-        <f>H47*1.1</f>
-        <v/>
-      </c>
-      <c r="I48" s="49">
-        <f>I47*1.1</f>
-        <v/>
-      </c>
-      <c r="J48" s="49">
-        <f>J47*1.1</f>
-        <v/>
-      </c>
-      <c r="K48" s="49">
-        <f>K47*1.1</f>
-        <v/>
-      </c>
-      <c r="L48" s="49">
-        <f>L47*1.1</f>
-        <v/>
-      </c>
-      <c r="M48" s="49">
-        <f>M47*1.1</f>
-        <v/>
-      </c>
-      <c r="N48" s="49">
-        <f>N47*1.1</f>
-        <v/>
-      </c>
-      <c r="O48" s="49">
-        <f>O47*1.1</f>
-        <v/>
-      </c>
-      <c r="P48" s="49">
-        <f>P47*1.1</f>
-        <v/>
-      </c>
-      <c r="Q48" s="49">
-        <f>Q47*1.1</f>
-        <v/>
-      </c>
-      <c r="R48" s="51">
-        <f>R47*1.1</f>
-        <v/>
-      </c>
-      <c r="S48" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S48)-33,FALSE)</f>
-        <v/>
+      <c r="C48" s="49" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="D48" s="49" t="n">
+        <v>3.696</v>
+      </c>
+      <c r="E48" s="49" t="n">
+        <v>5.544</v>
+      </c>
+      <c r="F48" s="49" t="n">
+        <v>7.392</v>
+      </c>
+      <c r="G48" s="49" t="n">
+        <v>9.239999999999998</v>
+      </c>
+      <c r="H48" s="49" t="n">
+        <v>11.088</v>
+      </c>
+      <c r="I48" s="49" t="n">
+        <v>12.936</v>
+      </c>
+      <c r="J48" s="49" t="n">
+        <v>14.784</v>
+      </c>
+      <c r="K48" s="49" t="n">
+        <v>16.632</v>
+      </c>
+      <c r="L48" s="49" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="M48" s="49" t="n">
+        <v>20.328</v>
+      </c>
+      <c r="N48" s="49" t="n">
+        <v>22.176</v>
+      </c>
+      <c r="O48" s="49" t="n">
+        <v>24.024</v>
+      </c>
+      <c r="P48" s="49" t="n">
+        <v>25.872</v>
+      </c>
+      <c r="Q48" s="49" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="R48" s="51" t="n">
+        <v>29.568</v>
+      </c>
+      <c r="S48" s="92" t="n">
+        <v>3.696</v>
       </c>
     </row>
     <row r="49" ht="12.5" customHeight="1">
@@ -2922,73 +2708,56 @@
         </is>
       </c>
       <c r="B49" s="53" t="n"/>
-      <c r="C49" s="53">
-        <f>C48*E10</f>
-        <v/>
-      </c>
-      <c r="D49" s="53">
-        <f>D48*E10</f>
-        <v/>
-      </c>
-      <c r="E49" s="53">
-        <f>E48*E10</f>
-        <v/>
-      </c>
-      <c r="F49" s="53">
-        <f>F48*E10</f>
-        <v/>
-      </c>
-      <c r="G49" s="53">
-        <f>G48*E10</f>
-        <v/>
-      </c>
-      <c r="H49" s="53">
-        <f>H48*E10</f>
-        <v/>
-      </c>
-      <c r="I49" s="53">
-        <f>I48*E10</f>
-        <v/>
-      </c>
-      <c r="J49" s="53">
-        <f>J48*E10</f>
-        <v/>
-      </c>
-      <c r="K49" s="53">
-        <f>K48*E10</f>
-        <v/>
-      </c>
-      <c r="L49" s="53">
-        <f>L48*E10</f>
-        <v/>
-      </c>
-      <c r="M49" s="53">
-        <f>M48*E10</f>
-        <v/>
-      </c>
-      <c r="N49" s="53">
-        <f>N48*E10</f>
-        <v/>
-      </c>
-      <c r="O49" s="53">
-        <f>O48*E10</f>
-        <v/>
-      </c>
-      <c r="P49" s="53">
-        <f>P48*E10</f>
-        <v/>
-      </c>
-      <c r="Q49" s="53">
-        <f>Q48*E10</f>
-        <v/>
-      </c>
-      <c r="R49" s="54">
-        <f>R48*E10</f>
-        <v/>
-      </c>
-      <c r="S49" s="93">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S49)-33,FALSE)</f>
-        <v/>
+      <c r="C49" s="53" t="n">
+        <v>10.164</v>
+      </c>
+      <c r="D49" s="53" t="n">
+        <v>20.328</v>
+      </c>
+      <c r="E49" s="53" t="n">
+        <v>30.492</v>
+      </c>
+      <c r="F49" s="53" t="n">
+        <v>40.656</v>
+      </c>
+      <c r="G49" s="53" t="n">
+        <v>50.81999999999999</v>
+      </c>
+      <c r="H49" s="53" t="n">
+        <v>60.98400000000001</v>
+      </c>
+      <c r="I49" s="53" t="n">
+        <v>71.148</v>
+      </c>
+      <c r="J49" s="53" t="n">
+        <v>81.312</v>
+      </c>
+      <c r="K49" s="53" t="n">
+        <v>91.47600000000001</v>
+      </c>
+      <c r="L49" s="53" t="n">
+        <v>101.64</v>
+      </c>
+      <c r="M49" s="53" t="n">
+        <v>111.804</v>
+      </c>
+      <c r="N49" s="53" t="n">
+        <v>121.968</v>
+      </c>
+      <c r="O49" s="53" t="n">
+        <v>132.132</v>
+      </c>
+      <c r="P49" s="53" t="n">
+        <v>142.296</v>
+      </c>
+      <c r="Q49" s="53" t="n">
+        <v>152.46</v>
+      </c>
+      <c r="R49" s="54" t="n">
+        <v>162.624</v>
+      </c>
+      <c r="S49" s="93" t="n">
+        <v>20.328</v>
       </c>
     </row>
     <row r="50" ht="12.5" customHeight="1">
@@ -3019,73 +2788,56 @@
         </is>
       </c>
       <c r="B51" s="49" t="n"/>
-      <c r="C51" s="49">
-        <f>C36*2.8</f>
-        <v/>
-      </c>
-      <c r="D51" s="49">
-        <f>D36*2.8</f>
-        <v/>
-      </c>
-      <c r="E51" s="49">
-        <f>E36*2.8</f>
-        <v/>
-      </c>
-      <c r="F51" s="49">
-        <f>F36*2.8</f>
-        <v/>
-      </c>
-      <c r="G51" s="49">
-        <f>G36*2.8</f>
-        <v/>
-      </c>
-      <c r="H51" s="49">
-        <f>H36*2.8</f>
-        <v/>
-      </c>
-      <c r="I51" s="49">
-        <f>I36*2.8</f>
-        <v/>
-      </c>
-      <c r="J51" s="49">
-        <f>J36*2.8</f>
-        <v/>
-      </c>
-      <c r="K51" s="49">
-        <f>K36*2.8</f>
-        <v/>
-      </c>
-      <c r="L51" s="49">
-        <f>L36*2.8</f>
-        <v/>
-      </c>
-      <c r="M51" s="49">
-        <f>M36*2.8</f>
-        <v/>
-      </c>
-      <c r="N51" s="49">
-        <f>N36*2.8</f>
-        <v/>
-      </c>
-      <c r="O51" s="49">
-        <f>O36*2.8</f>
-        <v/>
-      </c>
-      <c r="P51" s="49">
-        <f>P36*2.8</f>
-        <v/>
-      </c>
-      <c r="Q51" s="49">
-        <f>Q36*2.8</f>
-        <v/>
-      </c>
-      <c r="R51" s="51">
-        <f>R36*2.8</f>
-        <v/>
-      </c>
-      <c r="S51" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S51)-33,FALSE)</f>
-        <v/>
+      <c r="C51" s="49" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D51" s="49" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E51" s="49" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="F51" s="49" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="G51" s="49" t="n">
+        <v>8.399999999999999</v>
+      </c>
+      <c r="H51" s="49" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="I51" s="49" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="J51" s="49" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="K51" s="49" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="L51" s="49" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="M51" s="49" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="N51" s="49" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="O51" s="49" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="P51" s="49" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="Q51" s="49" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="R51" s="51" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="S51" s="92" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="52" ht="12.5" customHeight="1">
@@ -3095,73 +2847,56 @@
         </is>
       </c>
       <c r="B52" s="49" t="n"/>
-      <c r="C52" s="49">
-        <f>C51*1.1</f>
-        <v/>
-      </c>
-      <c r="D52" s="49">
-        <f>D51*1.1</f>
-        <v/>
-      </c>
-      <c r="E52" s="49">
-        <f>E51*1.1</f>
-        <v/>
-      </c>
-      <c r="F52" s="49">
-        <f>F51*1.1</f>
-        <v/>
-      </c>
-      <c r="G52" s="49">
-        <f>G51*1.1</f>
-        <v/>
-      </c>
-      <c r="H52" s="49">
-        <f>H51*1.1</f>
-        <v/>
-      </c>
-      <c r="I52" s="49">
-        <f>I51*1.1</f>
-        <v/>
-      </c>
-      <c r="J52" s="49">
-        <f>J51*1.1</f>
-        <v/>
-      </c>
-      <c r="K52" s="49">
-        <f>K51*1.1</f>
-        <v/>
-      </c>
-      <c r="L52" s="49">
-        <f>L51*1.1</f>
-        <v/>
-      </c>
-      <c r="M52" s="49">
-        <f>M51*1.1</f>
-        <v/>
-      </c>
-      <c r="N52" s="49">
-        <f>N51*1.1</f>
-        <v/>
-      </c>
-      <c r="O52" s="49">
-        <f>O51*1.1</f>
-        <v/>
-      </c>
-      <c r="P52" s="49">
-        <f>P51*1.1</f>
-        <v/>
-      </c>
-      <c r="Q52" s="49">
-        <f>Q51*1.1</f>
-        <v/>
-      </c>
-      <c r="R52" s="51">
-        <f>R51*1.1</f>
-        <v/>
-      </c>
-      <c r="S52" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S52)-33,FALSE)</f>
-        <v/>
+      <c r="C52" s="49" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="D52" s="49" t="n">
+        <v>3.696</v>
+      </c>
+      <c r="E52" s="49" t="n">
+        <v>5.544</v>
+      </c>
+      <c r="F52" s="49" t="n">
+        <v>7.392</v>
+      </c>
+      <c r="G52" s="49" t="n">
+        <v>9.239999999999998</v>
+      </c>
+      <c r="H52" s="49" t="n">
+        <v>11.088</v>
+      </c>
+      <c r="I52" s="49" t="n">
+        <v>12.936</v>
+      </c>
+      <c r="J52" s="49" t="n">
+        <v>14.784</v>
+      </c>
+      <c r="K52" s="49" t="n">
+        <v>16.632</v>
+      </c>
+      <c r="L52" s="49" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="M52" s="49" t="n">
+        <v>20.328</v>
+      </c>
+      <c r="N52" s="49" t="n">
+        <v>22.176</v>
+      </c>
+      <c r="O52" s="49" t="n">
+        <v>24.024</v>
+      </c>
+      <c r="P52" s="49" t="n">
+        <v>25.872</v>
+      </c>
+      <c r="Q52" s="49" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="R52" s="51" t="n">
+        <v>29.568</v>
+      </c>
+      <c r="S52" s="92" t="n">
+        <v>3.696</v>
       </c>
     </row>
     <row r="53" ht="12.5" customHeight="1">
@@ -3171,73 +2906,56 @@
         </is>
       </c>
       <c r="B53" s="53" t="n"/>
-      <c r="C53" s="53">
-        <f>C52*E11</f>
-        <v/>
-      </c>
-      <c r="D53" s="53">
-        <f>D52*E11</f>
-        <v/>
-      </c>
-      <c r="E53" s="53">
-        <f>E52*E11</f>
-        <v/>
-      </c>
-      <c r="F53" s="53">
-        <f>F52*E11</f>
-        <v/>
-      </c>
-      <c r="G53" s="53">
-        <f>G52*E11</f>
-        <v/>
-      </c>
-      <c r="H53" s="53">
-        <f>H52*E11</f>
-        <v/>
-      </c>
-      <c r="I53" s="53">
-        <f>I52*E11</f>
-        <v/>
-      </c>
-      <c r="J53" s="53">
-        <f>J52*E11</f>
-        <v/>
-      </c>
-      <c r="K53" s="53">
-        <f>K52*E11</f>
-        <v/>
-      </c>
-      <c r="L53" s="53">
-        <f>L52*E11</f>
-        <v/>
-      </c>
-      <c r="M53" s="53">
-        <f>M52*E11</f>
-        <v/>
-      </c>
-      <c r="N53" s="53">
-        <f>N52*E11</f>
-        <v/>
-      </c>
-      <c r="O53" s="53">
-        <f>O52*E11</f>
-        <v/>
-      </c>
-      <c r="P53" s="53">
-        <f>P52*E11</f>
-        <v/>
-      </c>
-      <c r="Q53" s="53">
-        <f>Q52*E11</f>
-        <v/>
-      </c>
-      <c r="R53" s="54">
-        <f>R52*E11</f>
-        <v/>
-      </c>
-      <c r="S53" s="93">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S53)-33,FALSE)</f>
-        <v/>
+      <c r="C53" s="53" t="n">
+        <v>25.7796</v>
+      </c>
+      <c r="D53" s="53" t="n">
+        <v>51.5592</v>
+      </c>
+      <c r="E53" s="53" t="n">
+        <v>77.33880000000001</v>
+      </c>
+      <c r="F53" s="53" t="n">
+        <v>103.1184</v>
+      </c>
+      <c r="G53" s="53" t="n">
+        <v>128.898</v>
+      </c>
+      <c r="H53" s="53" t="n">
+        <v>154.6776</v>
+      </c>
+      <c r="I53" s="53" t="n">
+        <v>180.4572</v>
+      </c>
+      <c r="J53" s="53" t="n">
+        <v>206.2368</v>
+      </c>
+      <c r="K53" s="53" t="n">
+        <v>232.0164</v>
+      </c>
+      <c r="L53" s="53" t="n">
+        <v>257.7959999999999</v>
+      </c>
+      <c r="M53" s="53" t="n">
+        <v>283.5756</v>
+      </c>
+      <c r="N53" s="53" t="n">
+        <v>309.3552</v>
+      </c>
+      <c r="O53" s="53" t="n">
+        <v>335.1348</v>
+      </c>
+      <c r="P53" s="53" t="n">
+        <v>360.9144</v>
+      </c>
+      <c r="Q53" s="53" t="n">
+        <v>386.694</v>
+      </c>
+      <c r="R53" s="54" t="n">
+        <v>412.4736</v>
+      </c>
+      <c r="S53" s="93" t="n">
+        <v>51.5592</v>
       </c>
     </row>
     <row r="54" ht="12.5" customHeight="1">
@@ -3268,73 +2986,56 @@
         </is>
       </c>
       <c r="B55" s="49" t="n"/>
-      <c r="C55" s="49">
-        <f>C36*C35</f>
-        <v/>
-      </c>
-      <c r="D55" s="49">
-        <f>D36*D35</f>
-        <v/>
-      </c>
-      <c r="E55" s="49">
-        <f>E36*E35</f>
-        <v/>
-      </c>
-      <c r="F55" s="49">
-        <f>F36*F35</f>
-        <v/>
-      </c>
-      <c r="G55" s="49">
-        <f>G36*G35</f>
-        <v/>
-      </c>
-      <c r="H55" s="49">
-        <f>H36*H35</f>
-        <v/>
-      </c>
-      <c r="I55" s="49">
-        <f>I36*I35</f>
-        <v/>
-      </c>
-      <c r="J55" s="49">
-        <f>J36*J35</f>
-        <v/>
-      </c>
-      <c r="K55" s="49">
-        <f>K36*K35</f>
-        <v/>
-      </c>
-      <c r="L55" s="49">
-        <f>L36*L35</f>
-        <v/>
-      </c>
-      <c r="M55" s="49">
-        <f>M36*M35</f>
-        <v/>
-      </c>
-      <c r="N55" s="49">
-        <f>N36*N35</f>
-        <v/>
-      </c>
-      <c r="O55" s="49">
-        <f>O36*O35</f>
-        <v/>
-      </c>
-      <c r="P55" s="49">
-        <f>P36*P35</f>
-        <v/>
-      </c>
-      <c r="Q55" s="49">
-        <f>Q36*Q35</f>
-        <v/>
-      </c>
-      <c r="R55" s="51">
-        <f>R36*R35</f>
-        <v/>
-      </c>
-      <c r="S55" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S55)-33,FALSE)</f>
-        <v/>
+      <c r="C55" s="49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D55" s="49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E55" s="49" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F55" s="49" t="n">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="G55" s="49" t="n">
+        <v>9</v>
+      </c>
+      <c r="H55" s="49" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="I55" s="49" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J55" s="49" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K55" s="49" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="L55" s="49" t="n">
+        <v>18</v>
+      </c>
+      <c r="M55" s="49" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="N55" s="49" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="O55" s="49" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="P55" s="49" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="Q55" s="49" t="n">
+        <v>27</v>
+      </c>
+      <c r="R55" s="51" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="S55" s="92" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="56" ht="12.5" customHeight="1">
@@ -3344,73 +3045,56 @@
         </is>
       </c>
       <c r="B56" s="49" t="n"/>
-      <c r="C56" s="49">
-        <f>C55*1.1</f>
-        <v/>
-      </c>
-      <c r="D56" s="49">
-        <f>D55*1.1</f>
-        <v/>
-      </c>
-      <c r="E56" s="49">
-        <f>E55*1.1</f>
-        <v/>
-      </c>
-      <c r="F56" s="49">
-        <f>F55*1.1</f>
-        <v/>
-      </c>
-      <c r="G56" s="49">
-        <f>G55*1.1</f>
-        <v/>
-      </c>
-      <c r="H56" s="49">
-        <f>H55*1.1</f>
-        <v/>
-      </c>
-      <c r="I56" s="49">
-        <f>I55*1.1</f>
-        <v/>
-      </c>
-      <c r="J56" s="49">
-        <f>J55*1.1</f>
-        <v/>
-      </c>
-      <c r="K56" s="49">
-        <f>K55*1.1</f>
-        <v/>
-      </c>
-      <c r="L56" s="49">
-        <f>L55*1.1</f>
-        <v/>
-      </c>
-      <c r="M56" s="49">
-        <f>M55*1.1</f>
-        <v/>
-      </c>
-      <c r="N56" s="49">
-        <f>N55*1.1</f>
-        <v/>
-      </c>
-      <c r="O56" s="49">
-        <f>O55*1.1</f>
-        <v/>
-      </c>
-      <c r="P56" s="49">
-        <f>P55*1.1</f>
-        <v/>
-      </c>
-      <c r="Q56" s="49">
-        <f>Q55*1.1</f>
-        <v/>
-      </c>
-      <c r="R56" s="51">
-        <f>R55*1.1</f>
-        <v/>
-      </c>
-      <c r="S56" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S56)-33,FALSE)</f>
-        <v/>
+      <c r="C56" s="49" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D56" s="49" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E56" s="49" t="n">
+        <v>5.940000000000001</v>
+      </c>
+      <c r="F56" s="49" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="G56" s="49" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H56" s="49" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="I56" s="49" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="J56" s="49" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="K56" s="49" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="L56" s="49" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="M56" s="49" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="N56" s="49" t="n">
+        <v>23.76000000000001</v>
+      </c>
+      <c r="O56" s="49" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="P56" s="49" t="n">
+        <v>27.72000000000001</v>
+      </c>
+      <c r="Q56" s="49" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="R56" s="51" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="S56" s="92" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="57" ht="12.5" customHeight="1">
@@ -3420,73 +3104,56 @@
         </is>
       </c>
       <c r="B57" s="53" t="n"/>
-      <c r="C57" s="53">
-        <f>C56*E12</f>
-        <v/>
-      </c>
-      <c r="D57" s="53">
-        <f>D56*E12</f>
-        <v/>
-      </c>
-      <c r="E57" s="53">
-        <f>E56*E12</f>
-        <v/>
-      </c>
-      <c r="F57" s="53">
-        <f>F56*E12</f>
-        <v/>
-      </c>
-      <c r="G57" s="53">
-        <f>G56*E12</f>
-        <v/>
-      </c>
-      <c r="H57" s="53">
-        <f>H56*E12</f>
-        <v/>
-      </c>
-      <c r="I57" s="53">
-        <f>I56*E12</f>
-        <v/>
-      </c>
-      <c r="J57" s="53">
-        <f>J56*E12</f>
-        <v/>
-      </c>
-      <c r="K57" s="53">
-        <f>K56*E12</f>
-        <v/>
-      </c>
-      <c r="L57" s="53">
-        <f>L56*E12</f>
-        <v/>
-      </c>
-      <c r="M57" s="53">
-        <f>M56*E12</f>
-        <v/>
-      </c>
-      <c r="N57" s="53">
-        <f>N56*E12</f>
-        <v/>
-      </c>
-      <c r="O57" s="53">
-        <f>O56*E12</f>
-        <v/>
-      </c>
-      <c r="P57" s="53">
-        <f>P56*E12</f>
-        <v/>
-      </c>
-      <c r="Q57" s="53">
-        <f>Q56*E12</f>
-        <v/>
-      </c>
-      <c r="R57" s="54">
-        <f>R56*E12</f>
-        <v/>
-      </c>
-      <c r="S57" s="93">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S57)-33,FALSE)</f>
-        <v/>
+      <c r="C57" s="53" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="D57" s="53" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="E57" s="53" t="n">
+        <v>47.52000000000001</v>
+      </c>
+      <c r="F57" s="53" t="n">
+        <v>63.36</v>
+      </c>
+      <c r="G57" s="53" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="H57" s="53" t="n">
+        <v>95.04000000000002</v>
+      </c>
+      <c r="I57" s="53" t="n">
+        <v>110.88</v>
+      </c>
+      <c r="J57" s="53" t="n">
+        <v>126.72</v>
+      </c>
+      <c r="K57" s="53" t="n">
+        <v>142.56</v>
+      </c>
+      <c r="L57" s="53" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="M57" s="53" t="n">
+        <v>174.24</v>
+      </c>
+      <c r="N57" s="53" t="n">
+        <v>190.08</v>
+      </c>
+      <c r="O57" s="53" t="n">
+        <v>205.92</v>
+      </c>
+      <c r="P57" s="53" t="n">
+        <v>221.76</v>
+      </c>
+      <c r="Q57" s="53" t="n">
+        <v>237.6</v>
+      </c>
+      <c r="R57" s="54" t="n">
+        <v>253.44</v>
+      </c>
+      <c r="S57" s="93" t="n">
+        <v>31.68</v>
       </c>
     </row>
     <row r="58" ht="12.5" customHeight="1">
@@ -3524,73 +3191,56 @@
         </is>
       </c>
       <c r="B59" s="49" t="n"/>
-      <c r="C59" s="49">
-        <f>(C36+0.5)</f>
-        <v/>
-      </c>
-      <c r="D59" s="49">
-        <f>(D36+0.5)</f>
-        <v/>
-      </c>
-      <c r="E59" s="49">
-        <f>(E36+0.5)</f>
-        <v/>
-      </c>
-      <c r="F59" s="49">
-        <f>(F36+0.5)</f>
-        <v/>
-      </c>
-      <c r="G59" s="49">
-        <f>(G36+0.5)</f>
-        <v/>
-      </c>
-      <c r="H59" s="49">
-        <f>(H36+0.5)</f>
-        <v/>
-      </c>
-      <c r="I59" s="49">
-        <f>(I36+0.5)</f>
-        <v/>
-      </c>
-      <c r="J59" s="49">
-        <f>(J36+0.5)</f>
-        <v/>
-      </c>
-      <c r="K59" s="49">
-        <f>(K36+0.5)</f>
-        <v/>
-      </c>
-      <c r="L59" s="49">
-        <f>(L36+0.5)</f>
-        <v/>
-      </c>
-      <c r="M59" s="49">
-        <f>(M36+0.5)</f>
-        <v/>
-      </c>
-      <c r="N59" s="49">
-        <f>(N36+0.5)</f>
-        <v/>
-      </c>
-      <c r="O59" s="49">
-        <f>(O36+0.5)</f>
-        <v/>
-      </c>
-      <c r="P59" s="49">
-        <f>(P36+0.5)</f>
-        <v/>
-      </c>
-      <c r="Q59" s="49">
-        <f>(Q36+0.5)</f>
-        <v/>
-      </c>
-      <c r="R59" s="51">
-        <f>(R36+0.5)</f>
-        <v/>
-      </c>
-      <c r="S59" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S59)-33,FALSE)</f>
-        <v/>
+      <c r="C59" s="49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D59" s="49" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E59" s="49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F59" s="49" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G59" s="49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H59" s="49" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I59" s="49" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J59" s="49" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K59" s="49" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L59" s="49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M59" s="49" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="N59" s="49" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O59" s="49" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="P59" s="49" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Q59" s="49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="R59" s="51" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="S59" s="92" t="n">
+        <v>1.7</v>
       </c>
       <c r="T59" s="49" t="n"/>
       <c r="U59" s="49" t="n"/>
@@ -3607,73 +3257,56 @@
         </is>
       </c>
       <c r="B60" s="56" t="n"/>
-      <c r="C60" s="49">
-        <f>C59*1.1</f>
-        <v/>
-      </c>
-      <c r="D60" s="49">
-        <f>D59*1.1</f>
-        <v/>
-      </c>
-      <c r="E60" s="49">
-        <f>E59*1.1</f>
-        <v/>
-      </c>
-      <c r="F60" s="49">
-        <f>F59*1.1</f>
-        <v/>
-      </c>
-      <c r="G60" s="49">
-        <f>G59*1.1</f>
-        <v/>
-      </c>
-      <c r="H60" s="49">
-        <f>H59*1.1</f>
-        <v/>
-      </c>
-      <c r="I60" s="49">
-        <f>I59*1.1</f>
-        <v/>
-      </c>
-      <c r="J60" s="49">
-        <f>J59*1.1</f>
-        <v/>
-      </c>
-      <c r="K60" s="49">
-        <f>K59*1.1</f>
-        <v/>
-      </c>
-      <c r="L60" s="49">
-        <f>L59*1.1</f>
-        <v/>
-      </c>
-      <c r="M60" s="49">
-        <f>M59*1.1</f>
-        <v/>
-      </c>
-      <c r="N60" s="49">
-        <f>N59*1.1</f>
-        <v/>
-      </c>
-      <c r="O60" s="49">
-        <f>O59*1.1</f>
-        <v/>
-      </c>
-      <c r="P60" s="49">
-        <f>P59*1.1</f>
-        <v/>
-      </c>
-      <c r="Q60" s="49">
-        <f>Q59*1.1</f>
-        <v/>
-      </c>
-      <c r="R60" s="51">
-        <f>R59*1.1</f>
-        <v/>
-      </c>
-      <c r="S60" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S60)-33,FALSE)</f>
-        <v/>
+      <c r="C60" s="49" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D60" s="49" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E60" s="49" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F60" s="49" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G60" s="49" t="n">
+        <v>3.850000000000001</v>
+      </c>
+      <c r="H60" s="49" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="I60" s="49" t="n">
+        <v>5.170000000000001</v>
+      </c>
+      <c r="J60" s="49" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="K60" s="49" t="n">
+        <v>6.490000000000001</v>
+      </c>
+      <c r="L60" s="49" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="M60" s="49" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="N60" s="49" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="O60" s="49" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="P60" s="49" t="n">
+        <v>9.790000000000001</v>
+      </c>
+      <c r="Q60" s="49" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="R60" s="51" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="S60" s="92" t="n">
+        <v>1.87</v>
       </c>
       <c r="T60" s="49" t="n"/>
       <c r="U60" s="49" t="n"/>
@@ -3690,73 +3323,56 @@
         </is>
       </c>
       <c r="B61" s="57" t="n"/>
-      <c r="C61" s="53">
-        <f>C60*E13</f>
-        <v/>
-      </c>
-      <c r="D61" s="53">
-        <f>D60*E13</f>
-        <v/>
-      </c>
-      <c r="E61" s="53">
-        <f>E60*E13</f>
-        <v/>
-      </c>
-      <c r="F61" s="53">
-        <f>F60*E13</f>
-        <v/>
-      </c>
-      <c r="G61" s="53">
-        <f>G60*E13</f>
-        <v/>
-      </c>
-      <c r="H61" s="53">
-        <f>H60*E13</f>
-        <v/>
-      </c>
-      <c r="I61" s="53">
-        <f>I60*E13</f>
-        <v/>
-      </c>
-      <c r="J61" s="53">
-        <f>J60*E13</f>
-        <v/>
-      </c>
-      <c r="K61" s="53">
-        <f>K60*E13</f>
-        <v/>
-      </c>
-      <c r="L61" s="53">
-        <f>L60*E13</f>
-        <v/>
-      </c>
-      <c r="M61" s="53">
-        <f>M60*E13</f>
-        <v/>
-      </c>
-      <c r="N61" s="53">
-        <f>N60*E13</f>
-        <v/>
-      </c>
-      <c r="O61" s="53">
-        <f>O60*E13</f>
-        <v/>
-      </c>
-      <c r="P61" s="53">
-        <f>P60*E13</f>
-        <v/>
-      </c>
-      <c r="Q61" s="53">
-        <f>Q60*E13</f>
-        <v/>
-      </c>
-      <c r="R61" s="54">
-        <f>R60*E13</f>
-        <v/>
-      </c>
-      <c r="S61" s="93">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S61)-33,FALSE)</f>
-        <v/>
+      <c r="C61" s="53" t="n">
+        <v>3.339600000000001</v>
+      </c>
+      <c r="D61" s="53" t="n">
+        <v>5.161200000000001</v>
+      </c>
+      <c r="E61" s="53" t="n">
+        <v>6.9828</v>
+      </c>
+      <c r="F61" s="53" t="n">
+        <v>8.804400000000001</v>
+      </c>
+      <c r="G61" s="53" t="n">
+        <v>10.626</v>
+      </c>
+      <c r="H61" s="53" t="n">
+        <v>12.4476</v>
+      </c>
+      <c r="I61" s="53" t="n">
+        <v>14.2692</v>
+      </c>
+      <c r="J61" s="53" t="n">
+        <v>16.0908</v>
+      </c>
+      <c r="K61" s="53" t="n">
+        <v>17.91240000000001</v>
+      </c>
+      <c r="L61" s="53" t="n">
+        <v>19.734</v>
+      </c>
+      <c r="M61" s="53" t="n">
+        <v>21.5556</v>
+      </c>
+      <c r="N61" s="53" t="n">
+        <v>23.3772</v>
+      </c>
+      <c r="O61" s="53" t="n">
+        <v>25.19880000000001</v>
+      </c>
+      <c r="P61" s="53" t="n">
+        <v>27.02040000000001</v>
+      </c>
+      <c r="Q61" s="53" t="n">
+        <v>28.84200000000001</v>
+      </c>
+      <c r="R61" s="54" t="n">
+        <v>30.66360000000001</v>
+      </c>
+      <c r="S61" s="93" t="n">
+        <v>5.161200000000001</v>
       </c>
       <c r="T61" s="49" t="n"/>
       <c r="U61" s="49" t="n"/>
@@ -3785,73 +3401,56 @@
         </is>
       </c>
       <c r="B63" s="49" t="n"/>
-      <c r="C63" s="49">
-        <f>(C36+0.5)</f>
-        <v/>
-      </c>
-      <c r="D63" s="49">
-        <f>(D36+0.5)</f>
-        <v/>
-      </c>
-      <c r="E63" s="49">
-        <f>(E36+0.5)</f>
-        <v/>
-      </c>
-      <c r="F63" s="49">
-        <f>(F36+0.5)</f>
-        <v/>
-      </c>
-      <c r="G63" s="49">
-        <f>(G36+0.5)</f>
-        <v/>
-      </c>
-      <c r="H63" s="49">
-        <f>(H36+0.5)</f>
-        <v/>
-      </c>
-      <c r="I63" s="49">
-        <f>(I36+0.5)</f>
-        <v/>
-      </c>
-      <c r="J63" s="49">
-        <f>(J36+0.5)</f>
-        <v/>
-      </c>
-      <c r="K63" s="49">
-        <f>(K36+0.5)</f>
-        <v/>
-      </c>
-      <c r="L63" s="49">
-        <f>(L36+0.5)</f>
-        <v/>
-      </c>
-      <c r="M63" s="49">
-        <f>(M36+0.5)</f>
-        <v/>
-      </c>
-      <c r="N63" s="49">
-        <f>(N36+0.5)</f>
-        <v/>
-      </c>
-      <c r="O63" s="49">
-        <f>(O36+0.5)</f>
-        <v/>
-      </c>
-      <c r="P63" s="49">
-        <f>(P36+0.5)</f>
-        <v/>
-      </c>
-      <c r="Q63" s="49">
-        <f>(Q36+0.5)</f>
-        <v/>
-      </c>
-      <c r="R63" s="51">
-        <f>(R36+0.5)</f>
-        <v/>
-      </c>
-      <c r="S63" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S63)-33,FALSE)</f>
-        <v/>
+      <c r="C63" s="49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D63" s="49" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E63" s="49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F63" s="49" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G63" s="49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H63" s="49" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I63" s="49" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J63" s="49" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K63" s="49" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L63" s="49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M63" s="49" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="N63" s="49" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O63" s="49" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="P63" s="49" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Q63" s="49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="R63" s="51" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="S63" s="92" t="n">
+        <v>1.7</v>
       </c>
       <c r="T63" s="49" t="n"/>
       <c r="U63" s="49" t="n"/>
@@ -3867,73 +3466,56 @@
           <t>Perte 10%</t>
         </is>
       </c>
-      <c r="C64" s="49">
-        <f>C63*1.1</f>
-        <v/>
-      </c>
-      <c r="D64" s="49">
-        <f>D63*1.1</f>
-        <v/>
-      </c>
-      <c r="E64" s="49">
-        <f>E63*1.1</f>
-        <v/>
-      </c>
-      <c r="F64" s="49">
-        <f>F63*1.1</f>
-        <v/>
-      </c>
-      <c r="G64" s="49">
-        <f>G63*1.1</f>
-        <v/>
-      </c>
-      <c r="H64" s="49">
-        <f>H63*1.1</f>
-        <v/>
-      </c>
-      <c r="I64" s="49">
-        <f>I63*1.1</f>
-        <v/>
-      </c>
-      <c r="J64" s="49">
-        <f>J63*1.1</f>
-        <v/>
-      </c>
-      <c r="K64" s="49">
-        <f>K63*1.1</f>
-        <v/>
-      </c>
-      <c r="L64" s="49">
-        <f>L63*1.1</f>
-        <v/>
-      </c>
-      <c r="M64" s="49">
-        <f>M63*1.1</f>
-        <v/>
-      </c>
-      <c r="N64" s="49">
-        <f>N63*1.1</f>
-        <v/>
-      </c>
-      <c r="O64" s="49">
-        <f>O63*1.1</f>
-        <v/>
-      </c>
-      <c r="P64" s="49">
-        <f>P63*1.1</f>
-        <v/>
-      </c>
-      <c r="Q64" s="49">
-        <f>Q63*1.1</f>
-        <v/>
-      </c>
-      <c r="R64" s="51">
-        <f>R63*1.1</f>
-        <v/>
-      </c>
-      <c r="S64" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S64)-33,FALSE)</f>
-        <v/>
+      <c r="C64" s="49" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D64" s="49" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E64" s="49" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F64" s="49" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G64" s="49" t="n">
+        <v>3.850000000000001</v>
+      </c>
+      <c r="H64" s="49" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="I64" s="49" t="n">
+        <v>5.170000000000001</v>
+      </c>
+      <c r="J64" s="49" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="K64" s="49" t="n">
+        <v>6.490000000000001</v>
+      </c>
+      <c r="L64" s="49" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="M64" s="49" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="N64" s="49" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="O64" s="49" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="P64" s="49" t="n">
+        <v>9.790000000000001</v>
+      </c>
+      <c r="Q64" s="49" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="R64" s="51" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="S64" s="92" t="n">
+        <v>1.87</v>
       </c>
       <c r="T64" s="58" t="n"/>
       <c r="U64" s="58" t="n"/>
@@ -3950,73 +3532,56 @@
         </is>
       </c>
       <c r="B65" s="49" t="n"/>
-      <c r="C65" s="25">
-        <f>C64*E14</f>
-        <v/>
-      </c>
-      <c r="D65" s="25">
-        <f>D64*E14</f>
-        <v/>
-      </c>
-      <c r="E65" s="25">
-        <f>E64*E14</f>
-        <v/>
-      </c>
-      <c r="F65" s="25">
-        <f>F64*E14</f>
-        <v/>
-      </c>
-      <c r="G65" s="25">
-        <f>G64*E14</f>
-        <v/>
-      </c>
-      <c r="H65" s="25">
-        <f>H64*E14</f>
-        <v/>
-      </c>
-      <c r="I65" s="25">
-        <f>I64*E14</f>
-        <v/>
-      </c>
-      <c r="J65" s="25">
-        <f>J64*E14</f>
-        <v/>
-      </c>
-      <c r="K65" s="25">
-        <f>K64*E14</f>
-        <v/>
-      </c>
-      <c r="L65" s="25">
-        <f>L64*E14</f>
-        <v/>
-      </c>
-      <c r="M65" s="25">
-        <f>M64*E14</f>
-        <v/>
-      </c>
-      <c r="N65" s="25">
-        <f>N64*E14</f>
-        <v/>
-      </c>
-      <c r="O65" s="25">
-        <f>O64*E14</f>
-        <v/>
-      </c>
-      <c r="P65" s="25">
-        <f>P64*E14</f>
-        <v/>
-      </c>
-      <c r="Q65" s="25">
-        <f>Q64*E14</f>
-        <v/>
-      </c>
-      <c r="R65" s="34">
-        <f>R64*E14</f>
-        <v/>
-      </c>
-      <c r="S65" s="95">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S65)-33,FALSE)</f>
-        <v/>
+      <c r="C65" s="25" t="n">
+        <v>3.630000000000001</v>
+      </c>
+      <c r="D65" s="25" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="E65" s="25" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="F65" s="25" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="G65" s="25" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="H65" s="25" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="I65" s="25" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="J65" s="25" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="K65" s="25" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="L65" s="25" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="M65" s="25" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="N65" s="25" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="O65" s="25" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="P65" s="25" t="n">
+        <v>29.37</v>
+      </c>
+      <c r="Q65" s="25" t="n">
+        <v>31.35</v>
+      </c>
+      <c r="R65" s="34" t="n">
+        <v>33.33000000000001</v>
+      </c>
+      <c r="S65" s="95" t="n">
+        <v>5.61</v>
       </c>
       <c r="T65" s="49" t="n"/>
       <c r="U65" s="49" t="n"/>
@@ -4045,73 +3610,56 @@
         </is>
       </c>
       <c r="B67" s="49" t="n"/>
-      <c r="C67" s="49">
-        <f>(C38+1)*C35</f>
-        <v/>
-      </c>
-      <c r="D67" s="49">
-        <f>(D38+1)*D35</f>
-        <v/>
-      </c>
-      <c r="E67" s="49">
-        <f>(E38+1)*E35</f>
-        <v/>
-      </c>
-      <c r="F67" s="49">
-        <f>(F38+1)*F35</f>
-        <v/>
-      </c>
-      <c r="G67" s="49">
-        <f>(G38+1)*G35</f>
-        <v/>
-      </c>
-      <c r="H67" s="49">
-        <f>(H38+1)*H35</f>
-        <v/>
-      </c>
-      <c r="I67" s="49">
-        <f>(I38+1)*I35</f>
-        <v/>
-      </c>
-      <c r="J67" s="49">
-        <f>(J38+1)*J35</f>
-        <v/>
-      </c>
-      <c r="K67" s="49">
-        <f>(K38+1)*K35</f>
-        <v/>
-      </c>
-      <c r="L67" s="49">
-        <f>(L38+1)*L35</f>
-        <v/>
-      </c>
-      <c r="M67" s="49">
-        <f>(M38+1)*M35</f>
-        <v/>
-      </c>
-      <c r="N67" s="49">
-        <f>(N38+1)*N35</f>
-        <v/>
-      </c>
-      <c r="O67" s="49">
-        <f>(O38+1)*O35</f>
-        <v/>
-      </c>
-      <c r="P67" s="49">
-        <f>(P38+1)*P35</f>
-        <v/>
-      </c>
-      <c r="Q67" s="49">
-        <f>(Q38+1)*Q35</f>
-        <v/>
-      </c>
-      <c r="R67" s="51">
-        <f>(R38+1)*R35</f>
-        <v/>
-      </c>
-      <c r="S67" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S67)-33,FALSE)</f>
-        <v/>
+      <c r="C67" s="49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D67" s="49" t="n">
+        <v>9</v>
+      </c>
+      <c r="E67" s="49" t="n">
+        <v>12</v>
+      </c>
+      <c r="F67" s="49" t="n">
+        <v>15</v>
+      </c>
+      <c r="G67" s="49" t="n">
+        <v>18</v>
+      </c>
+      <c r="H67" s="49" t="n">
+        <v>21</v>
+      </c>
+      <c r="I67" s="49" t="n">
+        <v>24</v>
+      </c>
+      <c r="J67" s="49" t="n">
+        <v>27</v>
+      </c>
+      <c r="K67" s="49" t="n">
+        <v>30</v>
+      </c>
+      <c r="L67" s="49" t="n">
+        <v>33</v>
+      </c>
+      <c r="M67" s="49" t="n">
+        <v>36</v>
+      </c>
+      <c r="N67" s="49" t="n">
+        <v>39</v>
+      </c>
+      <c r="O67" s="49" t="n">
+        <v>42</v>
+      </c>
+      <c r="P67" s="49" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q67" s="49" t="n">
+        <v>48</v>
+      </c>
+      <c r="R67" s="51" t="n">
+        <v>51</v>
+      </c>
+      <c r="S67" s="92" t="n">
+        <v>9</v>
       </c>
       <c r="T67" s="49" t="n"/>
       <c r="U67" s="49" t="n"/>
@@ -4128,73 +3676,56 @@
         </is>
       </c>
       <c r="B68" s="49" t="n"/>
-      <c r="C68" s="49">
-        <f>C67*1.1</f>
-        <v/>
-      </c>
-      <c r="D68" s="49">
-        <f>D67*1.1</f>
-        <v/>
-      </c>
-      <c r="E68" s="49">
-        <f>E67*1.1</f>
-        <v/>
-      </c>
-      <c r="F68" s="49">
-        <f>F67*1.1</f>
-        <v/>
-      </c>
-      <c r="G68" s="49">
-        <f>G67*1.1</f>
-        <v/>
-      </c>
-      <c r="H68" s="49">
-        <f>H67*1.1</f>
-        <v/>
-      </c>
-      <c r="I68" s="49">
-        <f>I67*1.1</f>
-        <v/>
-      </c>
-      <c r="J68" s="49">
-        <f>J67*1.1</f>
-        <v/>
-      </c>
-      <c r="K68" s="49">
-        <f>K67*1.1</f>
-        <v/>
-      </c>
-      <c r="L68" s="49">
-        <f>L67*1.1</f>
-        <v/>
-      </c>
-      <c r="M68" s="49">
-        <f>M67*1.1</f>
-        <v/>
-      </c>
-      <c r="N68" s="49">
-        <f>N67*1.1</f>
-        <v/>
-      </c>
-      <c r="O68" s="49">
-        <f>O67*1.1</f>
-        <v/>
-      </c>
-      <c r="P68" s="49">
-        <f>P67*1.1</f>
-        <v/>
-      </c>
-      <c r="Q68" s="49">
-        <f>Q67*1.1</f>
-        <v/>
-      </c>
-      <c r="R68" s="51">
-        <f>R67*1.1</f>
-        <v/>
-      </c>
-      <c r="S68" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S68)-33,FALSE)</f>
-        <v/>
+      <c r="C68" s="49" t="n">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="D68" s="49" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E68" s="49" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F68" s="49" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G68" s="49" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="H68" s="49" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="I68" s="49" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J68" s="49" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K68" s="49" t="n">
+        <v>33</v>
+      </c>
+      <c r="L68" s="49" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="M68" s="49" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="N68" s="49" t="n">
+        <v>42.90000000000001</v>
+      </c>
+      <c r="O68" s="49" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="P68" s="49" t="n">
+        <v>49.50000000000001</v>
+      </c>
+      <c r="Q68" s="49" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="R68" s="51" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="S68" s="92" t="n">
+        <v>9.9</v>
       </c>
       <c r="T68" s="49" t="n"/>
       <c r="U68" s="49" t="n"/>
@@ -4211,73 +3742,56 @@
         </is>
       </c>
       <c r="B69" s="53" t="n"/>
-      <c r="C69" s="53">
-        <f>C68*E15</f>
-        <v/>
-      </c>
-      <c r="D69" s="53">
-        <f>D68*E15</f>
-        <v/>
-      </c>
-      <c r="E69" s="53">
-        <f>E68*E15</f>
-        <v/>
-      </c>
-      <c r="F69" s="53">
-        <f>F68*E15</f>
-        <v/>
-      </c>
-      <c r="G69" s="53">
-        <f>G68*E15</f>
-        <v/>
-      </c>
-      <c r="H69" s="53">
-        <f>H68*E15</f>
-        <v/>
-      </c>
-      <c r="I69" s="53">
-        <f>I68*E15</f>
-        <v/>
-      </c>
-      <c r="J69" s="53">
-        <f>J68*E15</f>
-        <v/>
-      </c>
-      <c r="K69" s="53">
-        <f>K68*E15</f>
-        <v/>
-      </c>
-      <c r="L69" s="53">
-        <f>L68*E15</f>
-        <v/>
-      </c>
-      <c r="M69" s="53">
-        <f>M68*E15</f>
-        <v/>
-      </c>
-      <c r="N69" s="53">
-        <f>N68*E15</f>
-        <v/>
-      </c>
-      <c r="O69" s="53">
-        <f>O68*E15</f>
-        <v/>
-      </c>
-      <c r="P69" s="53">
-        <f>P68*E15</f>
-        <v/>
-      </c>
-      <c r="Q69" s="53">
-        <f>Q68*E15</f>
-        <v/>
-      </c>
-      <c r="R69" s="54">
-        <f>R68*E15</f>
-        <v/>
-      </c>
-      <c r="S69" s="93">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S69)-33,FALSE)</f>
-        <v/>
+      <c r="C69" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" s="93" t="n">
+        <v>0</v>
       </c>
       <c r="T69" s="49" t="n"/>
       <c r="U69" s="49" t="n"/>
@@ -4319,73 +3833,56 @@
           <t>Étanchéité lisse haute</t>
         </is>
       </c>
-      <c r="C71" s="49">
-        <f>C36</f>
-        <v/>
-      </c>
-      <c r="D71" s="49">
-        <f>D36</f>
-        <v/>
-      </c>
-      <c r="E71" s="49">
-        <f>E36</f>
-        <v/>
-      </c>
-      <c r="F71" s="49">
-        <f>F36</f>
-        <v/>
-      </c>
-      <c r="G71" s="49">
-        <f>G36</f>
-        <v/>
-      </c>
-      <c r="H71" s="49">
-        <f>H36</f>
-        <v/>
-      </c>
-      <c r="I71" s="49">
-        <f>I36</f>
-        <v/>
-      </c>
-      <c r="J71" s="49">
-        <f>J36</f>
-        <v/>
-      </c>
-      <c r="K71" s="49">
-        <f>K36</f>
-        <v/>
-      </c>
-      <c r="L71" s="49">
-        <f>L36</f>
-        <v/>
-      </c>
-      <c r="M71" s="49">
-        <f>M36</f>
-        <v/>
-      </c>
-      <c r="N71" s="49">
-        <f>N36</f>
-        <v/>
-      </c>
-      <c r="O71" s="49">
-        <f>O36</f>
-        <v/>
-      </c>
-      <c r="P71" s="49">
-        <f>P36</f>
-        <v/>
-      </c>
-      <c r="Q71" s="49">
-        <f>Q36</f>
-        <v/>
-      </c>
-      <c r="R71" s="51">
-        <f>R36</f>
-        <v/>
-      </c>
-      <c r="S71" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S71)-33,FALSE)</f>
-        <v/>
+      <c r="C71" s="49" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D71" s="49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E71" s="49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F71" s="49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G71" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H71" s="49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I71" s="49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J71" s="49" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K71" s="49" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L71" s="49" t="n">
+        <v>6</v>
+      </c>
+      <c r="M71" s="49" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N71" s="49" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O71" s="49" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="P71" s="49" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Q71" s="49" t="n">
+        <v>9</v>
+      </c>
+      <c r="R71" s="51" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="S71" s="92" t="n">
+        <v>1.2</v>
       </c>
       <c r="T71" s="49" t="n"/>
       <c r="U71" s="49" t="n"/>
@@ -4401,73 +3898,56 @@
           <t>Perte 10%</t>
         </is>
       </c>
-      <c r="C72" s="9">
-        <f>C71*1.1</f>
-        <v/>
-      </c>
-      <c r="D72" s="9">
-        <f>D71*1.1</f>
-        <v/>
-      </c>
-      <c r="E72" s="9">
-        <f>E71*1.1</f>
-        <v/>
-      </c>
-      <c r="F72" s="9">
-        <f>F71*1.1</f>
-        <v/>
-      </c>
-      <c r="G72" s="9">
-        <f>G71*1.1</f>
-        <v/>
-      </c>
-      <c r="H72" s="9">
-        <f>H71*1.1</f>
-        <v/>
-      </c>
-      <c r="I72" s="9">
-        <f>I71*1.1</f>
-        <v/>
-      </c>
-      <c r="J72" s="9">
-        <f>J71*1.1</f>
-        <v/>
-      </c>
-      <c r="K72" s="9">
-        <f>K71*1.1</f>
-        <v/>
-      </c>
-      <c r="L72" s="9">
-        <f>L71*1.1</f>
-        <v/>
-      </c>
-      <c r="M72" s="9">
-        <f>M71*1.1</f>
-        <v/>
-      </c>
-      <c r="N72" s="9">
-        <f>N71*1.1</f>
-        <v/>
-      </c>
-      <c r="O72" s="9">
-        <f>O71*1.1</f>
-        <v/>
-      </c>
-      <c r="P72" s="9">
-        <f>P71*1.1</f>
-        <v/>
-      </c>
-      <c r="Q72" s="9">
-        <f>Q71*1.1</f>
-        <v/>
-      </c>
-      <c r="R72" s="21">
-        <f>R71*1.1</f>
-        <v/>
-      </c>
-      <c r="S72" s="91">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S72)-33,FALSE)</f>
-        <v/>
+      <c r="C72" s="9" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D72" s="9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E72" s="9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F72" s="9" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G72" s="9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H72" s="9" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="I72" s="9" t="n">
+        <v>4.620000000000001</v>
+      </c>
+      <c r="J72" s="9" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="K72" s="9" t="n">
+        <v>5.940000000000001</v>
+      </c>
+      <c r="L72" s="9" t="n">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="M72" s="9" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="N72" s="9" t="n">
+        <v>7.920000000000001</v>
+      </c>
+      <c r="O72" s="9" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="P72" s="9" t="n">
+        <v>9.240000000000002</v>
+      </c>
+      <c r="Q72" s="9" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="R72" s="21" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="S72" s="91" t="n">
+        <v>1.32</v>
       </c>
       <c r="T72" s="49" t="n"/>
       <c r="U72" s="49" t="n"/>
@@ -4483,73 +3963,56 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C73" s="25">
-        <f>C72*E16</f>
-        <v/>
-      </c>
-      <c r="D73" s="25">
-        <f>D72*E16</f>
-        <v/>
-      </c>
-      <c r="E73" s="25">
-        <f>E72*E16</f>
-        <v/>
-      </c>
-      <c r="F73" s="25">
-        <f>F72*E16</f>
-        <v/>
-      </c>
-      <c r="G73" s="25">
-        <f>G72*E16</f>
-        <v/>
-      </c>
-      <c r="H73" s="25">
-        <f>H72*E16</f>
-        <v/>
-      </c>
-      <c r="I73" s="25">
-        <f>I72*E16</f>
-        <v/>
-      </c>
-      <c r="J73" s="25">
-        <f>J72*E16</f>
-        <v/>
-      </c>
-      <c r="K73" s="25">
-        <f>K72*E16</f>
-        <v/>
-      </c>
-      <c r="L73" s="25">
-        <f>L72*E16</f>
-        <v/>
-      </c>
-      <c r="M73" s="25">
-        <f>M72*E16</f>
-        <v/>
-      </c>
-      <c r="N73" s="25">
-        <f>N72*E16</f>
-        <v/>
-      </c>
-      <c r="O73" s="25">
-        <f>O72*E16</f>
-        <v/>
-      </c>
-      <c r="P73" s="25">
-        <f>P72*E16</f>
-        <v/>
-      </c>
-      <c r="Q73" s="25">
-        <f>Q72*E16</f>
-        <v/>
-      </c>
-      <c r="R73" s="34">
-        <f>R72*E16</f>
-        <v/>
-      </c>
-      <c r="S73" s="95">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S73)-33,FALSE)</f>
-        <v/>
+      <c r="C73" s="25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D73" s="25" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E73" s="25" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F73" s="25" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="G73" s="25" t="n">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="H73" s="25" t="n">
+        <v>7.920000000000001</v>
+      </c>
+      <c r="I73" s="25" t="n">
+        <v>9.240000000000002</v>
+      </c>
+      <c r="J73" s="25" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="K73" s="25" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="L73" s="25" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="M73" s="25" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="N73" s="25" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="O73" s="25" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="P73" s="25" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="Q73" s="25" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="R73" s="34" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="S73" s="95" t="n">
+        <v>2.64</v>
       </c>
       <c r="T73" s="49" t="n"/>
       <c r="U73" s="49" t="n"/>
@@ -4592,73 +4055,56 @@
         </is>
       </c>
       <c r="B75" s="49" t="n"/>
-      <c r="C75" s="49">
-        <f>C35*2+C36*2</f>
-        <v/>
-      </c>
-      <c r="D75" s="49">
-        <f>D35*2+D36*2</f>
-        <v/>
-      </c>
-      <c r="E75" s="49">
-        <f>E35*3+E36*2</f>
-        <v/>
-      </c>
-      <c r="F75" s="49">
-        <f>F35*3+F36*2</f>
-        <v/>
-      </c>
-      <c r="G75" s="49">
-        <f>G35*4+G36*2</f>
-        <v/>
-      </c>
-      <c r="H75" s="49">
-        <f>H35*4+H36*2</f>
-        <v/>
-      </c>
-      <c r="I75" s="49">
-        <f>I35*5+I36*2</f>
-        <v/>
-      </c>
-      <c r="J75" s="49">
-        <f>J35*5+J36*2</f>
-        <v/>
-      </c>
-      <c r="K75" s="49">
-        <f>K35*6+K36*2</f>
-        <v/>
-      </c>
-      <c r="L75" s="49">
-        <f>L35*6+L36*2</f>
-        <v/>
-      </c>
-      <c r="M75" s="49">
-        <f>M35*7+M36*2</f>
-        <v/>
-      </c>
-      <c r="N75" s="49">
-        <f>N35*7+N36*2</f>
-        <v/>
-      </c>
-      <c r="O75" s="49">
-        <f>O35*8+O36*2</f>
-        <v/>
-      </c>
-      <c r="P75" s="49">
-        <f>P35*8+P36*2</f>
-        <v/>
-      </c>
-      <c r="Q75" s="49">
-        <f>Q35*9+Q36*2</f>
-        <v/>
-      </c>
-      <c r="R75" s="51">
-        <f>R35*9+R36*2</f>
-        <v/>
-      </c>
-      <c r="S75" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S75)-33,FALSE)</f>
-        <v/>
+      <c r="C75" s="49" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D75" s="49" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E75" s="49" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F75" s="49" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="G75" s="49" t="n">
+        <v>18</v>
+      </c>
+      <c r="H75" s="49" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="I75" s="49" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J75" s="49" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K75" s="49" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="L75" s="49" t="n">
+        <v>30</v>
+      </c>
+      <c r="M75" s="49" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="N75" s="49" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="O75" s="49" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="P75" s="49" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="Q75" s="49" t="n">
+        <v>45</v>
+      </c>
+      <c r="R75" s="51" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="S75" s="92" t="n">
+        <v>8.4</v>
       </c>
       <c r="T75" s="49" t="n"/>
       <c r="U75" s="49" t="n"/>
@@ -4675,73 +4121,56 @@
         </is>
       </c>
       <c r="B76" s="58" t="n"/>
-      <c r="C76" s="49">
-        <f>C75*1.05</f>
-        <v/>
-      </c>
-      <c r="D76" s="49">
-        <f>D75*1.05</f>
-        <v/>
-      </c>
-      <c r="E76" s="49">
-        <f>E75*1.05</f>
-        <v/>
-      </c>
-      <c r="F76" s="49">
-        <f>F75*1.05</f>
-        <v/>
-      </c>
-      <c r="G76" s="49">
-        <f>G75*1.05</f>
-        <v/>
-      </c>
-      <c r="H76" s="49">
-        <f>H75*1.05</f>
-        <v/>
-      </c>
-      <c r="I76" s="49">
-        <f>I75*1.05</f>
-        <v/>
-      </c>
-      <c r="J76" s="49">
-        <f>J75*1.05</f>
-        <v/>
-      </c>
-      <c r="K76" s="49">
-        <f>K75*1.05</f>
-        <v/>
-      </c>
-      <c r="L76" s="49">
-        <f>L75*1.05</f>
-        <v/>
-      </c>
-      <c r="M76" s="49">
-        <f>M75*1.05</f>
-        <v/>
-      </c>
-      <c r="N76" s="49">
-        <f>N75*1.05</f>
-        <v/>
-      </c>
-      <c r="O76" s="49">
-        <f>O75*1.05</f>
-        <v/>
-      </c>
-      <c r="P76" s="49">
-        <f>P75*1.05</f>
-        <v/>
-      </c>
-      <c r="Q76" s="49">
-        <f>Q75*1.05</f>
-        <v/>
-      </c>
-      <c r="R76" s="51">
-        <f>R75*1.05</f>
-        <v/>
-      </c>
-      <c r="S76" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S76)-33,FALSE)</f>
-        <v/>
+      <c r="C76" s="49" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="D76" s="49" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="E76" s="49" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="F76" s="49" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="G76" s="49" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="H76" s="49" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="I76" s="49" t="n">
+        <v>24.57</v>
+      </c>
+      <c r="J76" s="49" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="K76" s="49" t="n">
+        <v>30.24</v>
+      </c>
+      <c r="L76" s="49" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="M76" s="49" t="n">
+        <v>35.91</v>
+      </c>
+      <c r="N76" s="49" t="n">
+        <v>37.17</v>
+      </c>
+      <c r="O76" s="49" t="n">
+        <v>41.58000000000001</v>
+      </c>
+      <c r="P76" s="49" t="n">
+        <v>42.84</v>
+      </c>
+      <c r="Q76" s="49" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="R76" s="51" t="n">
+        <v>48.51000000000001</v>
+      </c>
+      <c r="S76" s="92" t="n">
+        <v>8.82</v>
       </c>
       <c r="T76" s="49" t="n"/>
       <c r="U76" s="49" t="n"/>
@@ -4758,73 +4187,56 @@
         </is>
       </c>
       <c r="B77" s="53" t="n"/>
-      <c r="C77" s="53">
-        <f>C76*E17</f>
-        <v/>
-      </c>
-      <c r="D77" s="53">
-        <f>D76*E17</f>
-        <v/>
-      </c>
-      <c r="E77" s="53">
-        <f>E76*E17</f>
-        <v/>
-      </c>
-      <c r="F77" s="53">
-        <f>F76*E17</f>
-        <v/>
-      </c>
-      <c r="G77" s="53">
-        <f>G76*E17</f>
-        <v/>
-      </c>
-      <c r="H77" s="53">
-        <f>H76*E17</f>
-        <v/>
-      </c>
-      <c r="I77" s="53">
-        <f>I76*E17</f>
-        <v/>
-      </c>
-      <c r="J77" s="53">
-        <f>J76*E17</f>
-        <v/>
-      </c>
-      <c r="K77" s="53">
-        <f>K76*E17</f>
-        <v/>
-      </c>
-      <c r="L77" s="53">
-        <f>L76*E17</f>
-        <v/>
-      </c>
-      <c r="M77" s="53">
-        <f>M76*E17</f>
-        <v/>
-      </c>
-      <c r="N77" s="53">
-        <f>N76*E17</f>
-        <v/>
-      </c>
-      <c r="O77" s="53">
-        <f>O76*E17</f>
-        <v/>
-      </c>
-      <c r="P77" s="53">
-        <f>P76*E17</f>
-        <v/>
-      </c>
-      <c r="Q77" s="53">
-        <f>Q76*E17</f>
-        <v/>
-      </c>
-      <c r="R77" s="54">
-        <f>R76*E17</f>
-        <v/>
-      </c>
-      <c r="S77" s="93">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S77)-33,FALSE)</f>
-        <v/>
+      <c r="C77" s="53" t="n">
+        <v>2.4948</v>
+      </c>
+      <c r="D77" s="53" t="n">
+        <v>2.9106</v>
+      </c>
+      <c r="E77" s="53" t="n">
+        <v>4.3659</v>
+      </c>
+      <c r="F77" s="53" t="n">
+        <v>4.7817</v>
+      </c>
+      <c r="G77" s="53" t="n">
+        <v>6.237</v>
+      </c>
+      <c r="H77" s="53" t="n">
+        <v>6.652799999999999</v>
+      </c>
+      <c r="I77" s="53" t="n">
+        <v>8.108099999999999</v>
+      </c>
+      <c r="J77" s="53" t="n">
+        <v>8.523899999999999</v>
+      </c>
+      <c r="K77" s="53" t="n">
+        <v>9.979199999999999</v>
+      </c>
+      <c r="L77" s="53" t="n">
+        <v>10.395</v>
+      </c>
+      <c r="M77" s="53" t="n">
+        <v>11.8503</v>
+      </c>
+      <c r="N77" s="53" t="n">
+        <v>12.2661</v>
+      </c>
+      <c r="O77" s="53" t="n">
+        <v>13.7214</v>
+      </c>
+      <c r="P77" s="53" t="n">
+        <v>14.1372</v>
+      </c>
+      <c r="Q77" s="53" t="n">
+        <v>15.5925</v>
+      </c>
+      <c r="R77" s="54" t="n">
+        <v>16.0083</v>
+      </c>
+      <c r="S77" s="93" t="n">
+        <v>2.9106</v>
       </c>
       <c r="T77" s="49" t="n"/>
       <c r="U77" s="49" t="n"/>
@@ -4869,73 +4281,56 @@
         </is>
       </c>
       <c r="B79" s="49" t="n"/>
-      <c r="C79" s="49">
-        <f>(C38+1)*8</f>
-        <v/>
-      </c>
-      <c r="D79" s="49">
-        <f>(D38+1)*8</f>
-        <v/>
-      </c>
-      <c r="E79" s="49">
-        <f>(E38+1)*8</f>
-        <v/>
-      </c>
-      <c r="F79" s="49">
-        <f>(F38+1)*8</f>
-        <v/>
-      </c>
-      <c r="G79" s="49">
-        <f>(G38+1)*8</f>
-        <v/>
-      </c>
-      <c r="H79" s="49">
-        <f>(H38+1)*8</f>
-        <v/>
-      </c>
-      <c r="I79" s="49">
-        <f>(I38+1)*8</f>
-        <v/>
-      </c>
-      <c r="J79" s="49">
-        <f>(J38+1)*8</f>
-        <v/>
-      </c>
-      <c r="K79" s="49">
-        <f>(K38+1)*8</f>
-        <v/>
-      </c>
-      <c r="L79" s="49">
-        <f>(L38+1)*8</f>
-        <v/>
-      </c>
-      <c r="M79" s="49">
-        <f>(M38+1)*8</f>
-        <v/>
-      </c>
-      <c r="N79" s="49">
-        <f>(N38+1)*8</f>
-        <v/>
-      </c>
-      <c r="O79" s="49">
-        <f>(O38+1)*8</f>
-        <v/>
-      </c>
-      <c r="P79" s="49">
-        <f>(P38+1)*8</f>
-        <v/>
-      </c>
-      <c r="Q79" s="49">
-        <f>(Q38+1)*8</f>
-        <v/>
-      </c>
-      <c r="R79" s="51">
-        <f>(R38+1)*8</f>
-        <v/>
-      </c>
-      <c r="S79" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S79)-33,FALSE)</f>
-        <v/>
+      <c r="C79" s="49" t="n">
+        <v>16</v>
+      </c>
+      <c r="D79" s="49" t="n">
+        <v>24</v>
+      </c>
+      <c r="E79" s="49" t="n">
+        <v>32</v>
+      </c>
+      <c r="F79" s="49" t="n">
+        <v>40</v>
+      </c>
+      <c r="G79" s="49" t="n">
+        <v>48</v>
+      </c>
+      <c r="H79" s="49" t="n">
+        <v>56</v>
+      </c>
+      <c r="I79" s="49" t="n">
+        <v>64</v>
+      </c>
+      <c r="J79" s="49" t="n">
+        <v>72</v>
+      </c>
+      <c r="K79" s="49" t="n">
+        <v>80</v>
+      </c>
+      <c r="L79" s="49" t="n">
+        <v>88</v>
+      </c>
+      <c r="M79" s="49" t="n">
+        <v>96</v>
+      </c>
+      <c r="N79" s="49" t="n">
+        <v>104</v>
+      </c>
+      <c r="O79" s="49" t="n">
+        <v>112</v>
+      </c>
+      <c r="P79" s="49" t="n">
+        <v>120</v>
+      </c>
+      <c r="Q79" s="49" t="n">
+        <v>128</v>
+      </c>
+      <c r="R79" s="51" t="n">
+        <v>136</v>
+      </c>
+      <c r="S79" s="92" t="n">
+        <v>24</v>
       </c>
       <c r="T79" s="49" t="n"/>
       <c r="U79" s="49" t="n"/>
@@ -4952,73 +4347,56 @@
         </is>
       </c>
       <c r="B80" s="49" t="n"/>
-      <c r="C80" s="49">
-        <f>C79*E18</f>
-        <v/>
-      </c>
-      <c r="D80" s="49">
-        <f>D79*E18</f>
-        <v/>
-      </c>
-      <c r="E80" s="49">
-        <f>E79*E18</f>
-        <v/>
-      </c>
-      <c r="F80" s="49">
-        <f>F79*E18</f>
-        <v/>
-      </c>
-      <c r="G80" s="49">
-        <f>G79*E18</f>
-        <v/>
-      </c>
-      <c r="H80" s="49">
-        <f>H79*E18</f>
-        <v/>
-      </c>
-      <c r="I80" s="49">
-        <f>I79*E18</f>
-        <v/>
-      </c>
-      <c r="J80" s="49">
-        <f>J79*E18</f>
-        <v/>
-      </c>
-      <c r="K80" s="49">
-        <f>K79*E18</f>
-        <v/>
-      </c>
-      <c r="L80" s="49">
-        <f>L79*E18</f>
-        <v/>
-      </c>
-      <c r="M80" s="49">
-        <f>M79*E18</f>
-        <v/>
-      </c>
-      <c r="N80" s="49">
-        <f>N79*E18</f>
-        <v/>
-      </c>
-      <c r="O80" s="49">
-        <f>O79*E18</f>
-        <v/>
-      </c>
-      <c r="P80" s="49">
-        <f>P79*E18</f>
-        <v/>
-      </c>
-      <c r="Q80" s="49">
-        <f>Q79*E18</f>
-        <v/>
-      </c>
-      <c r="R80" s="51">
-        <f>R79*E18</f>
-        <v/>
-      </c>
-      <c r="S80" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S80)-33,FALSE)</f>
-        <v/>
+      <c r="C80" s="49" t="n">
+        <v>0.4528</v>
+      </c>
+      <c r="D80" s="49" t="n">
+        <v>0.6792</v>
+      </c>
+      <c r="E80" s="49" t="n">
+        <v>0.9056</v>
+      </c>
+      <c r="F80" s="49" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="G80" s="49" t="n">
+        <v>1.3584</v>
+      </c>
+      <c r="H80" s="49" t="n">
+        <v>1.5848</v>
+      </c>
+      <c r="I80" s="49" t="n">
+        <v>1.8112</v>
+      </c>
+      <c r="J80" s="49" t="n">
+        <v>2.0376</v>
+      </c>
+      <c r="K80" s="49" t="n">
+        <v>2.264</v>
+      </c>
+      <c r="L80" s="49" t="n">
+        <v>2.4904</v>
+      </c>
+      <c r="M80" s="49" t="n">
+        <v>2.7168</v>
+      </c>
+      <c r="N80" s="49" t="n">
+        <v>2.9432</v>
+      </c>
+      <c r="O80" s="49" t="n">
+        <v>3.1696</v>
+      </c>
+      <c r="P80" s="49" t="n">
+        <v>3.396</v>
+      </c>
+      <c r="Q80" s="49" t="n">
+        <v>3.6224</v>
+      </c>
+      <c r="R80" s="51" t="n">
+        <v>3.8488</v>
+      </c>
+      <c r="S80" s="92" t="n">
+        <v>0.6792</v>
       </c>
       <c r="T80" s="49" t="n"/>
       <c r="U80" s="49" t="n"/>
@@ -5067,73 +4445,56 @@
           <t>15cm partout</t>
         </is>
       </c>
-      <c r="C82" s="49">
-        <f>((C38*1.5+1)*C35+(2*C36))/0.15</f>
-        <v/>
-      </c>
-      <c r="D82" s="49">
-        <f>((D38*1.5+1)*D35+(2*D36))/0.15</f>
-        <v/>
-      </c>
-      <c r="E82" s="49">
-        <f>((E38*1.5+1)*E35+(2*E36))/0.15</f>
-        <v/>
-      </c>
-      <c r="F82" s="49">
-        <f>((F38*1.5+1)*F35+(2*F36))/0.15</f>
-        <v/>
-      </c>
-      <c r="G82" s="49">
-        <f>((G38*1.5+1)*G35+(2*G36))/0.15</f>
-        <v/>
-      </c>
-      <c r="H82" s="49">
-        <f>((H38*1.5+1)*H35+(2*H36))/0.15</f>
-        <v/>
-      </c>
-      <c r="I82" s="49">
-        <f>((I38*1.5+1)*I35+(2*I36))/0.15</f>
-        <v/>
-      </c>
-      <c r="J82" s="49">
-        <f>((J38*1.5+1)*J35+(2*J36))/0.15</f>
-        <v/>
-      </c>
-      <c r="K82" s="49">
-        <f>((K38*1.5+1)*K35+(2*K36))/0.15</f>
-        <v/>
-      </c>
-      <c r="L82" s="49">
-        <f>((L38*1.5+1)*L35+(2*L36))/0.15</f>
-        <v/>
-      </c>
-      <c r="M82" s="49">
-        <f>((M38*1.5+1)*M35+(2*M36))/0.15</f>
-        <v/>
-      </c>
-      <c r="N82" s="49">
-        <f>((N38*1.5+1)*N35+(2*N36))/0.15</f>
-        <v/>
-      </c>
-      <c r="O82" s="49">
-        <f>((O38*1.5+1)*O35+(2*O36))/0.15</f>
-        <v/>
-      </c>
-      <c r="P82" s="49">
-        <f>((P38*1.5+1)*P35+(2*P36))/0.15</f>
-        <v/>
-      </c>
-      <c r="Q82" s="49">
-        <f>((Q38*1.5+1)*Q35+(2*Q36))/0.15</f>
-        <v/>
-      </c>
-      <c r="R82" s="49">
-        <f>((R38*1.5+1)*R35+(2*R36))/0.15</f>
-        <v/>
-      </c>
-      <c r="S82" s="97">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S82)-33,FALSE)</f>
-        <v/>
+      <c r="C82" s="49" t="n">
+        <v>58</v>
+      </c>
+      <c r="D82" s="49" t="n">
+        <v>96</v>
+      </c>
+      <c r="E82" s="49" t="n">
+        <v>134</v>
+      </c>
+      <c r="F82" s="49" t="n">
+        <v>172</v>
+      </c>
+      <c r="G82" s="49" t="n">
+        <v>210</v>
+      </c>
+      <c r="H82" s="49" t="n">
+        <v>248</v>
+      </c>
+      <c r="I82" s="49" t="n">
+        <v>286</v>
+      </c>
+      <c r="J82" s="49" t="n">
+        <v>324</v>
+      </c>
+      <c r="K82" s="49" t="n">
+        <v>362</v>
+      </c>
+      <c r="L82" s="49" t="n">
+        <v>400</v>
+      </c>
+      <c r="M82" s="49" t="n">
+        <v>438.0000000000001</v>
+      </c>
+      <c r="N82" s="49" t="n">
+        <v>476.0000000000001</v>
+      </c>
+      <c r="O82" s="49" t="n">
+        <v>514</v>
+      </c>
+      <c r="P82" s="49" t="n">
+        <v>552</v>
+      </c>
+      <c r="Q82" s="49" t="n">
+        <v>590</v>
+      </c>
+      <c r="R82" s="49" t="n">
+        <v>628</v>
+      </c>
+      <c r="S82" s="97" t="n">
+        <v>96</v>
       </c>
       <c r="T82" s="49" t="n"/>
       <c r="U82" s="49" t="n"/>
@@ -5150,73 +4511,56 @@
         </is>
       </c>
       <c r="B83" s="49" t="n"/>
-      <c r="C83" s="49">
-        <f>C82*E19</f>
-        <v/>
-      </c>
-      <c r="D83" s="49">
-        <f>D82*E19</f>
-        <v/>
-      </c>
-      <c r="E83" s="49">
-        <f>E82*E19</f>
-        <v/>
-      </c>
-      <c r="F83" s="49">
-        <f>F82*E19</f>
-        <v/>
-      </c>
-      <c r="G83" s="49">
-        <f>G82*E19</f>
-        <v/>
-      </c>
-      <c r="H83" s="49">
-        <f>H82*E19</f>
-        <v/>
-      </c>
-      <c r="I83" s="49">
-        <f>I82*E19</f>
-        <v/>
-      </c>
-      <c r="J83" s="49">
-        <f>J82*E19</f>
-        <v/>
-      </c>
-      <c r="K83" s="49">
-        <f>K82*E19</f>
-        <v/>
-      </c>
-      <c r="L83" s="49">
-        <f>L82*E19</f>
-        <v/>
-      </c>
-      <c r="M83" s="49">
-        <f>M82*E19</f>
-        <v/>
-      </c>
-      <c r="N83" s="49">
-        <f>N82*E19</f>
-        <v/>
-      </c>
-      <c r="O83" s="49">
-        <f>O82*E19</f>
-        <v/>
-      </c>
-      <c r="P83" s="49">
-        <f>P82*E19</f>
-        <v/>
-      </c>
-      <c r="Q83" s="49">
-        <f>Q82*E19</f>
-        <v/>
-      </c>
-      <c r="R83" s="51">
-        <f>R82*E19</f>
-        <v/>
-      </c>
-      <c r="S83" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S83)-33,FALSE)</f>
-        <v/>
+      <c r="C83" s="49" t="n">
+        <v>0.6287200000000001</v>
+      </c>
+      <c r="D83" s="49" t="n">
+        <v>1.04064</v>
+      </c>
+      <c r="E83" s="49" t="n">
+        <v>1.45256</v>
+      </c>
+      <c r="F83" s="49" t="n">
+        <v>1.86448</v>
+      </c>
+      <c r="G83" s="49" t="n">
+        <v>2.2764</v>
+      </c>
+      <c r="H83" s="49" t="n">
+        <v>2.68832</v>
+      </c>
+      <c r="I83" s="49" t="n">
+        <v>3.10024</v>
+      </c>
+      <c r="J83" s="49" t="n">
+        <v>3.51216</v>
+      </c>
+      <c r="K83" s="49" t="n">
+        <v>3.92408</v>
+      </c>
+      <c r="L83" s="49" t="n">
+        <v>4.336</v>
+      </c>
+      <c r="M83" s="49" t="n">
+        <v>4.747920000000001</v>
+      </c>
+      <c r="N83" s="49" t="n">
+        <v>5.159840000000001</v>
+      </c>
+      <c r="O83" s="49" t="n">
+        <v>5.57176</v>
+      </c>
+      <c r="P83" s="49" t="n">
+        <v>5.983680000000001</v>
+      </c>
+      <c r="Q83" s="49" t="n">
+        <v>6.395600000000001</v>
+      </c>
+      <c r="R83" s="51" t="n">
+        <v>6.80752</v>
+      </c>
+      <c r="S83" s="92" t="n">
+        <v>1.04064</v>
       </c>
       <c r="T83" s="49" t="n"/>
       <c r="U83" s="49" t="n"/>
@@ -5265,73 +4609,56 @@
           <t>15cm partout</t>
         </is>
       </c>
-      <c r="C85" s="49">
-        <f>C82</f>
-        <v/>
-      </c>
-      <c r="D85" s="49">
-        <f>D82</f>
-        <v/>
-      </c>
-      <c r="E85" s="49">
-        <f>E82</f>
-        <v/>
-      </c>
-      <c r="F85" s="49">
-        <f>F82</f>
-        <v/>
-      </c>
-      <c r="G85" s="49">
-        <f>G82</f>
-        <v/>
-      </c>
-      <c r="H85" s="49">
-        <f>H82</f>
-        <v/>
-      </c>
-      <c r="I85" s="49">
-        <f>I82</f>
-        <v/>
-      </c>
-      <c r="J85" s="49">
-        <f>J82</f>
-        <v/>
-      </c>
-      <c r="K85" s="49">
-        <f>K82</f>
-        <v/>
-      </c>
-      <c r="L85" s="49">
-        <f>L82</f>
-        <v/>
-      </c>
-      <c r="M85" s="49">
-        <f>M82</f>
-        <v/>
-      </c>
-      <c r="N85" s="49">
-        <f>N82</f>
-        <v/>
-      </c>
-      <c r="O85" s="49">
-        <f>O82</f>
-        <v/>
-      </c>
-      <c r="P85" s="49">
-        <f>P82</f>
-        <v/>
-      </c>
-      <c r="Q85" s="49">
-        <f>Q82</f>
-        <v/>
-      </c>
-      <c r="R85" s="51">
-        <f>R82</f>
-        <v/>
-      </c>
-      <c r="S85" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S85)-33,FALSE)</f>
-        <v/>
+      <c r="C85" s="49" t="n">
+        <v>58</v>
+      </c>
+      <c r="D85" s="49" t="n">
+        <v>96</v>
+      </c>
+      <c r="E85" s="49" t="n">
+        <v>134</v>
+      </c>
+      <c r="F85" s="49" t="n">
+        <v>172</v>
+      </c>
+      <c r="G85" s="49" t="n">
+        <v>210</v>
+      </c>
+      <c r="H85" s="49" t="n">
+        <v>248</v>
+      </c>
+      <c r="I85" s="49" t="n">
+        <v>286</v>
+      </c>
+      <c r="J85" s="49" t="n">
+        <v>324</v>
+      </c>
+      <c r="K85" s="49" t="n">
+        <v>362</v>
+      </c>
+      <c r="L85" s="49" t="n">
+        <v>400</v>
+      </c>
+      <c r="M85" s="49" t="n">
+        <v>438.0000000000001</v>
+      </c>
+      <c r="N85" s="49" t="n">
+        <v>476.0000000000001</v>
+      </c>
+      <c r="O85" s="49" t="n">
+        <v>514</v>
+      </c>
+      <c r="P85" s="49" t="n">
+        <v>552</v>
+      </c>
+      <c r="Q85" s="49" t="n">
+        <v>590</v>
+      </c>
+      <c r="R85" s="51" t="n">
+        <v>628</v>
+      </c>
+      <c r="S85" s="92" t="n">
+        <v>96</v>
       </c>
       <c r="T85" s="49" t="n"/>
       <c r="U85" s="49" t="n"/>
@@ -5348,73 +4675,56 @@
         </is>
       </c>
       <c r="B86" s="49" t="n"/>
-      <c r="C86" s="49">
-        <f>C85*E20</f>
-        <v/>
-      </c>
-      <c r="D86" s="49">
-        <f>D85*E20</f>
-        <v/>
-      </c>
-      <c r="E86" s="49">
-        <f>E85*E20</f>
-        <v/>
-      </c>
-      <c r="F86" s="49">
-        <f>F85*E20</f>
-        <v/>
-      </c>
-      <c r="G86" s="49">
-        <f>G85*E20</f>
-        <v/>
-      </c>
-      <c r="H86" s="49">
-        <f>H85*E20</f>
-        <v/>
-      </c>
-      <c r="I86" s="49">
-        <f>I85*E20</f>
-        <v/>
-      </c>
-      <c r="J86" s="49">
-        <f>J85*E20</f>
-        <v/>
-      </c>
-      <c r="K86" s="49">
-        <f>K85*E20</f>
-        <v/>
-      </c>
-      <c r="L86" s="49">
-        <f>L85*E20</f>
-        <v/>
-      </c>
-      <c r="M86" s="49">
-        <f>M85*E20</f>
-        <v/>
-      </c>
-      <c r="N86" s="49">
-        <f>N85*E20</f>
-        <v/>
-      </c>
-      <c r="O86" s="49">
-        <f>O85*E20</f>
-        <v/>
-      </c>
-      <c r="P86" s="49">
-        <f>P85*E20</f>
-        <v/>
-      </c>
-      <c r="Q86" s="49">
-        <f>Q85*E20</f>
-        <v/>
-      </c>
-      <c r="R86" s="51">
-        <f>R85*E20</f>
-        <v/>
-      </c>
-      <c r="S86" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S86)-33,FALSE)</f>
-        <v/>
+      <c r="C86" s="49" t="n">
+        <v>0.6287200000000001</v>
+      </c>
+      <c r="D86" s="49" t="n">
+        <v>1.04064</v>
+      </c>
+      <c r="E86" s="49" t="n">
+        <v>1.45256</v>
+      </c>
+      <c r="F86" s="49" t="n">
+        <v>1.86448</v>
+      </c>
+      <c r="G86" s="49" t="n">
+        <v>2.2764</v>
+      </c>
+      <c r="H86" s="49" t="n">
+        <v>2.68832</v>
+      </c>
+      <c r="I86" s="49" t="n">
+        <v>3.10024</v>
+      </c>
+      <c r="J86" s="49" t="n">
+        <v>3.51216</v>
+      </c>
+      <c r="K86" s="49" t="n">
+        <v>3.92408</v>
+      </c>
+      <c r="L86" s="49" t="n">
+        <v>4.336</v>
+      </c>
+      <c r="M86" s="49" t="n">
+        <v>4.747920000000001</v>
+      </c>
+      <c r="N86" s="49" t="n">
+        <v>5.159840000000001</v>
+      </c>
+      <c r="O86" s="49" t="n">
+        <v>5.57176</v>
+      </c>
+      <c r="P86" s="49" t="n">
+        <v>5.983680000000001</v>
+      </c>
+      <c r="Q86" s="49" t="n">
+        <v>6.395600000000001</v>
+      </c>
+      <c r="R86" s="51" t="n">
+        <v>6.80752</v>
+      </c>
+      <c r="S86" s="92" t="n">
+        <v>1.04064</v>
       </c>
       <c r="T86" s="49" t="n"/>
       <c r="U86" s="49" t="n"/>
@@ -5459,73 +4769,56 @@
         </is>
       </c>
       <c r="B88" s="58" t="n"/>
-      <c r="C88" s="49">
-        <f>(C38+1)*C35/0.3</f>
-        <v/>
-      </c>
-      <c r="D88" s="49">
-        <f>(D38+1)*D35/0.3</f>
-        <v/>
-      </c>
-      <c r="E88" s="49">
-        <f>(E38+1)*E35/0.3</f>
-        <v/>
-      </c>
-      <c r="F88" s="49">
-        <f>(F38+1)*F35/0.3</f>
-        <v/>
-      </c>
-      <c r="G88" s="49">
-        <f>(G38+1)*G35/0.3</f>
-        <v/>
-      </c>
-      <c r="H88" s="49">
-        <f>(H38+1)*H35/0.3</f>
-        <v/>
-      </c>
-      <c r="I88" s="49">
-        <f>(I38+1)*I35/0.3</f>
-        <v/>
-      </c>
-      <c r="J88" s="49">
-        <f>(J38+1)*J35/0.3</f>
-        <v/>
-      </c>
-      <c r="K88" s="49">
-        <f>(K38+1)*K35/0.3</f>
-        <v/>
-      </c>
-      <c r="L88" s="49">
-        <f>(L38+1)*L35/0.3</f>
-        <v/>
-      </c>
-      <c r="M88" s="49">
-        <f>(M38+1)*M35/0.3</f>
-        <v/>
-      </c>
-      <c r="N88" s="49">
-        <f>(N38+1)*N35/0.3</f>
-        <v/>
-      </c>
-      <c r="O88" s="49">
-        <f>(O38+1)*O35/0.3</f>
-        <v/>
-      </c>
-      <c r="P88" s="49">
-        <f>(P38+1)*P35/0.3</f>
-        <v/>
-      </c>
-      <c r="Q88" s="49">
-        <f>(Q38+1)*Q35/0.3</f>
-        <v/>
-      </c>
-      <c r="R88" s="51">
-        <f>(R38+1)*R35/0.3</f>
-        <v/>
-      </c>
-      <c r="S88" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S88)-33,FALSE)</f>
-        <v/>
+      <c r="C88" s="49" t="n">
+        <v>20</v>
+      </c>
+      <c r="D88" s="49" t="n">
+        <v>30</v>
+      </c>
+      <c r="E88" s="49" t="n">
+        <v>40</v>
+      </c>
+      <c r="F88" s="49" t="n">
+        <v>50</v>
+      </c>
+      <c r="G88" s="49" t="n">
+        <v>60</v>
+      </c>
+      <c r="H88" s="49" t="n">
+        <v>70</v>
+      </c>
+      <c r="I88" s="49" t="n">
+        <v>80</v>
+      </c>
+      <c r="J88" s="49" t="n">
+        <v>90</v>
+      </c>
+      <c r="K88" s="49" t="n">
+        <v>100</v>
+      </c>
+      <c r="L88" s="49" t="n">
+        <v>110</v>
+      </c>
+      <c r="M88" s="49" t="n">
+        <v>120</v>
+      </c>
+      <c r="N88" s="49" t="n">
+        <v>130</v>
+      </c>
+      <c r="O88" s="49" t="n">
+        <v>140</v>
+      </c>
+      <c r="P88" s="49" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q88" s="49" t="n">
+        <v>160</v>
+      </c>
+      <c r="R88" s="51" t="n">
+        <v>170</v>
+      </c>
+      <c r="S88" s="92" t="n">
+        <v>30</v>
       </c>
       <c r="T88" s="49" t="n"/>
       <c r="U88" s="49" t="n"/>
@@ -5542,73 +4835,56 @@
         </is>
       </c>
       <c r="B89" s="49" t="n"/>
-      <c r="C89" s="49">
-        <f>C88*E21</f>
-        <v/>
-      </c>
-      <c r="D89" s="49">
-        <f>D88*E21</f>
-        <v/>
-      </c>
-      <c r="E89" s="49">
-        <f>E88*E21</f>
-        <v/>
-      </c>
-      <c r="F89" s="49">
-        <f>F88*E21</f>
-        <v/>
-      </c>
-      <c r="G89" s="49">
-        <f>G88*E21</f>
-        <v/>
-      </c>
-      <c r="H89" s="49">
-        <f>H88*E21</f>
-        <v/>
-      </c>
-      <c r="I89" s="49">
-        <f>I88*E21</f>
-        <v/>
-      </c>
-      <c r="J89" s="49">
-        <f>J88*E21</f>
-        <v/>
-      </c>
-      <c r="K89" s="49">
-        <f>K88*E21</f>
-        <v/>
-      </c>
-      <c r="L89" s="49">
-        <f>L88*E21</f>
-        <v/>
-      </c>
-      <c r="M89" s="49">
-        <f>M88*E21</f>
-        <v/>
-      </c>
-      <c r="N89" s="49">
-        <f>N88*E21</f>
-        <v/>
-      </c>
-      <c r="O89" s="49">
-        <f>O88*E21</f>
-        <v/>
-      </c>
-      <c r="P89" s="49">
-        <f>P88*E21</f>
-        <v/>
-      </c>
-      <c r="Q89" s="49">
-        <f>Q88*E21</f>
-        <v/>
-      </c>
-      <c r="R89" s="51">
-        <f>R88*E21</f>
-        <v/>
-      </c>
-      <c r="S89" s="92">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S89)-33,FALSE)</f>
-        <v/>
+      <c r="C89" s="49" t="n">
+        <v>0.5594</v>
+      </c>
+      <c r="D89" s="49" t="n">
+        <v>0.8391</v>
+      </c>
+      <c r="E89" s="49" t="n">
+        <v>1.1188</v>
+      </c>
+      <c r="F89" s="49" t="n">
+        <v>1.3985</v>
+      </c>
+      <c r="G89" s="49" t="n">
+        <v>1.6782</v>
+      </c>
+      <c r="H89" s="49" t="n">
+        <v>1.9579</v>
+      </c>
+      <c r="I89" s="49" t="n">
+        <v>2.2376</v>
+      </c>
+      <c r="J89" s="49" t="n">
+        <v>2.5173</v>
+      </c>
+      <c r="K89" s="49" t="n">
+        <v>2.797</v>
+      </c>
+      <c r="L89" s="49" t="n">
+        <v>3.0767</v>
+      </c>
+      <c r="M89" s="49" t="n">
+        <v>3.3564</v>
+      </c>
+      <c r="N89" s="49" t="n">
+        <v>3.6361</v>
+      </c>
+      <c r="O89" s="49" t="n">
+        <v>3.9158</v>
+      </c>
+      <c r="P89" s="49" t="n">
+        <v>4.1955</v>
+      </c>
+      <c r="Q89" s="49" t="n">
+        <v>4.4752</v>
+      </c>
+      <c r="R89" s="51" t="n">
+        <v>4.7549</v>
+      </c>
+      <c r="S89" s="92" t="n">
+        <v>0.8391</v>
       </c>
       <c r="T89" s="49" t="n"/>
       <c r="U89" s="49" t="n"/>
@@ -5653,73 +4929,56 @@
         </is>
       </c>
       <c r="B91" s="49" t="n"/>
-      <c r="C91" s="63">
-        <f>H27</f>
-        <v/>
-      </c>
-      <c r="D91" s="63">
-        <f>C91</f>
-        <v/>
-      </c>
-      <c r="E91" s="63">
-        <f>D91</f>
-        <v/>
-      </c>
-      <c r="F91" s="63">
-        <f>E91</f>
-        <v/>
-      </c>
-      <c r="G91" s="63">
-        <f>F91</f>
-        <v/>
-      </c>
-      <c r="H91" s="63">
-        <f>G91</f>
-        <v/>
-      </c>
-      <c r="I91" s="63">
-        <f>H91</f>
-        <v/>
-      </c>
-      <c r="J91" s="63">
-        <f>I91</f>
-        <v/>
-      </c>
-      <c r="K91" s="63">
-        <f>J91</f>
-        <v/>
-      </c>
-      <c r="L91" s="63">
-        <f>K91</f>
-        <v/>
-      </c>
-      <c r="M91" s="63">
-        <f>L91</f>
-        <v/>
-      </c>
-      <c r="N91" s="63">
-        <f>M91</f>
-        <v/>
-      </c>
-      <c r="O91" s="63">
-        <f>N91</f>
-        <v/>
-      </c>
-      <c r="P91" s="63">
-        <f>O91</f>
-        <v/>
-      </c>
-      <c r="Q91" s="63">
-        <f>P91</f>
-        <v/>
-      </c>
-      <c r="R91" s="64">
-        <f>Q91</f>
-        <v/>
-      </c>
-      <c r="S91" s="98">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S91)-33,FALSE)</f>
-        <v/>
+      <c r="C91" s="63" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D91" s="63" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E91" s="63" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F91" s="63" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="G91" s="63" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H91" s="63" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="I91" s="63" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J91" s="63" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K91" s="63" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L91" s="63" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="M91" s="63" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="N91" s="63" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="O91" s="63" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="P91" s="63" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="Q91" s="63" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="R91" s="64" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="S91" s="98" t="n">
+        <v>10.7</v>
       </c>
       <c r="T91" s="49" t="n"/>
       <c r="U91" s="49" t="n"/>
@@ -5764,73 +5023,56 @@
         </is>
       </c>
       <c r="B93" s="67" t="n"/>
-      <c r="C93" s="68">
-        <f>C45+C49+C53+C57+C61+C65+C69+C73+C77+C80+C83+C86+C89</f>
-        <v/>
-      </c>
-      <c r="D93" s="68">
-        <f>D45+D49+D53+D57+D61+D65+D69+D73+D77+D80+D83+D86+D89</f>
-        <v/>
-      </c>
-      <c r="E93" s="68">
-        <f>E45+E49+E53+E57+E61+E65+E69+E73+E77+E80+E83+E86+E89</f>
-        <v/>
-      </c>
-      <c r="F93" s="68">
-        <f>F45+F49+F53+F57+F61+F65+F69+F73+F77+F80+F83+F86+F89</f>
-        <v/>
-      </c>
-      <c r="G93" s="68">
-        <f>G45+G49+G53+G57+G61+G65+G69+G73+G77+G80+G83+G86+G89</f>
-        <v/>
-      </c>
-      <c r="H93" s="68">
-        <f>H45+H49+H53+H57+H61+H65+H69+H73+H77+H80+H83+H86+H89</f>
-        <v/>
-      </c>
-      <c r="I93" s="68">
-        <f>I45+I49+I53+I57+I61+I65+I69+I73+I77+I80+I83+I86+I89</f>
-        <v/>
-      </c>
-      <c r="J93" s="68">
-        <f>J45+J49+J53+J57+J61+J65+J69+J73+J77+J80+J83+J86+J89</f>
-        <v/>
-      </c>
-      <c r="K93" s="68">
-        <f>K45+K49+K53+K57+K61+K65+K69+K73+K77+K80+K83+K86+K89</f>
-        <v/>
-      </c>
-      <c r="L93" s="68">
-        <f>L45+L49+L53+L57+L61+L65+L69+L73+L77+L80+L83+L86+L89</f>
-        <v/>
-      </c>
-      <c r="M93" s="68">
-        <f>M45+M49+M53+M57+M61+M65+M69+M73+M77+M80+M83+M86+M89</f>
-        <v/>
-      </c>
-      <c r="N93" s="68">
-        <f>N45+N49+N53+N57+N61+N65+N69+N73+N77+N80+N83+N86+N89</f>
-        <v/>
-      </c>
-      <c r="O93" s="68">
-        <f>O45+O49+O53+O57+O61+O65+O69+O73+O77+O80+O83+O86+O89</f>
-        <v/>
-      </c>
-      <c r="P93" s="68">
-        <f>P45+P49+P53+P57+P61+P65+P69+P73+P77+P80+P83+P86+P89</f>
-        <v/>
-      </c>
-      <c r="Q93" s="68">
-        <f>Q45+Q49+Q53+Q57+Q61+Q65+Q69+Q73+Q77+Q80+Q83+Q86+Q89</f>
-        <v/>
-      </c>
-      <c r="R93" s="69">
-        <f>R45+R49+R53+R57+R61+R65+R69+R73+R77+R80+R83+R86+R89</f>
-        <v/>
-      </c>
-      <c r="S93" s="99">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S93)-33,FALSE)</f>
-        <v/>
+      <c r="C93" s="68" t="n">
+        <v>145.3781</v>
+      </c>
+      <c r="D93" s="68" t="n">
+        <v>251.18307</v>
+      </c>
+      <c r="E93" s="68" t="n">
+        <v>358.02754</v>
+      </c>
+      <c r="F93" s="68" t="n">
+        <v>463.8325100000001</v>
+      </c>
+      <c r="G93" s="68" t="n">
+        <v>570.6769799999997</v>
+      </c>
+      <c r="H93" s="68" t="n">
+        <v>676.4819499999999</v>
+      </c>
+      <c r="I93" s="68" t="n">
+        <v>783.3264199999999</v>
+      </c>
+      <c r="J93" s="68" t="n">
+        <v>889.13139</v>
+      </c>
+      <c r="K93" s="68" t="n">
+        <v>995.9758600000002</v>
+      </c>
+      <c r="L93" s="68" t="n">
+        <v>1101.78083</v>
+      </c>
+      <c r="M93" s="68" t="n">
+        <v>1208.6253</v>
+      </c>
+      <c r="N93" s="68" t="n">
+        <v>1314.43027</v>
+      </c>
+      <c r="O93" s="68" t="n">
+        <v>1421.27474</v>
+      </c>
+      <c r="P93" s="68" t="n">
+        <v>1527.07971</v>
+      </c>
+      <c r="Q93" s="68" t="n">
+        <v>1633.92418</v>
+      </c>
+      <c r="R93" s="69" t="n">
+        <v>1739.72915</v>
+      </c>
+      <c r="S93" s="99" t="n">
+        <v>251.18307</v>
       </c>
       <c r="T93" s="70" t="n"/>
       <c r="U93" s="70" t="n"/>
@@ -5875,73 +5117,56 @@
         </is>
       </c>
       <c r="B95" s="72" t="n"/>
-      <c r="C95" s="73">
-        <f>C93/(C36*C35)</f>
-        <v/>
-      </c>
-      <c r="D95" s="73">
-        <f>D93/(D36*D35)</f>
-        <v/>
-      </c>
-      <c r="E95" s="73">
-        <f>E93/(E36*E35)</f>
-        <v/>
-      </c>
-      <c r="F95" s="73">
-        <f>F93/(F36*F35)</f>
-        <v/>
-      </c>
-      <c r="G95" s="74">
-        <f>G93/(G36*G35)</f>
-        <v/>
-      </c>
-      <c r="H95" s="73">
-        <f>H93/(H36*H35)</f>
-        <v/>
-      </c>
-      <c r="I95" s="73">
-        <f>I93/(I36*I35)</f>
-        <v/>
-      </c>
-      <c r="J95" s="73">
-        <f>J93/(J36*J35)</f>
-        <v/>
-      </c>
-      <c r="K95" s="73">
-        <f>K93/(K36*K35)</f>
-        <v/>
-      </c>
-      <c r="L95" s="73">
-        <f>L93/(L36*L35)</f>
-        <v/>
-      </c>
-      <c r="M95" s="73">
-        <f>M93/(M36*M35)</f>
-        <v/>
-      </c>
-      <c r="N95" s="73">
-        <f>N93/(N36*N35)</f>
-        <v/>
-      </c>
-      <c r="O95" s="73">
-        <f>O93/(O36*O35)</f>
-        <v/>
-      </c>
-      <c r="P95" s="73">
-        <f>P93/(P36*P35)</f>
-        <v/>
-      </c>
-      <c r="Q95" s="73">
-        <f>Q93/(Q36*Q35)</f>
-        <v/>
-      </c>
-      <c r="R95" s="75">
-        <f>R93/(R36*R35)</f>
-        <v/>
-      </c>
-      <c r="S95" s="100">
-        <f>HLOOKUP("x",$C$34:$R$95,ROW(S95)-33,FALSE)</f>
-        <v/>
+      <c r="C95" s="73" t="n">
+        <v>80.7656111111111</v>
+      </c>
+      <c r="D95" s="73" t="n">
+        <v>69.77307500000001</v>
+      </c>
+      <c r="E95" s="73" t="n">
+        <v>66.3013962962963</v>
+      </c>
+      <c r="F95" s="73" t="n">
+        <v>64.42118194444446</v>
+      </c>
+      <c r="G95" s="74" t="n">
+        <v>63.4085533333333</v>
+      </c>
+      <c r="H95" s="73" t="n">
+        <v>62.63721759259258</v>
+      </c>
+      <c r="I95" s="73" t="n">
+        <v>62.16876349206348</v>
+      </c>
+      <c r="J95" s="73" t="n">
+        <v>61.74523541666667</v>
+      </c>
+      <c r="K95" s="73" t="n">
+        <v>61.4799913580247</v>
+      </c>
+      <c r="L95" s="73" t="n">
+        <v>61.2100461111111</v>
+      </c>
+      <c r="M95" s="73" t="n">
+        <v>61.04168181818182</v>
+      </c>
+      <c r="N95" s="73" t="n">
+        <v>60.85325324074074</v>
+      </c>
+      <c r="O95" s="73" t="n">
+        <v>60.73823675213677</v>
+      </c>
+      <c r="P95" s="73" t="n">
+        <v>60.59840119047619</v>
+      </c>
+      <c r="Q95" s="73" t="n">
+        <v>60.51571037037039</v>
+      </c>
+      <c r="R95" s="75" t="n">
+        <v>60.40726215277778</v>
+      </c>
+      <c r="S95" s="100" t="n">
+        <v>69.77307500000001</v>
       </c>
       <c r="T95" s="76" t="n"/>
       <c r="U95" s="76" t="n"/>
@@ -31248,9 +30473,8 @@
           <t>Cout_€_m2</t>
         </is>
       </c>
-      <c r="B2" s="101">
-        <f>Modele!S95</f>
-        <v/>
+      <c r="B2" s="101" t="n">
+        <v>83.72769000000001</v>
       </c>
     </row>
     <row r="3">
@@ -31259,9 +30483,8 @@
           <t>Cout_€_mur</t>
         </is>
       </c>
-      <c r="B3" s="101">
-        <f>Modele!S93</f>
-        <v/>
+      <c r="B3" s="101" t="n">
+        <v>251.18307</v>
       </c>
     </row>
   </sheetData>

--- a/Cout/Modele Devis v1.xlsx
+++ b/Cout/Modele Devis v1.xlsx
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
